--- a/sample_datasets/Canada/covid-19-health-care-worker-cases-deaths-march-2022-data-tables-en.xlsx
+++ b/sample_datasets/Canada/covid-19-health-care-worker-cases-deaths-march-2022-data-tables-en.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10916"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Common\OT-Creative_Language_Services\_Final_files_for_Web\COVID-19-Cases-and-deaths\March-2022-release\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/student/Documents – SNG058/Canada - UBC/2024 Term 2/CPSC 368/cpsc368_knm_project/sample_datasets/Canada/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1C6E5C1A-482B-450B-AD04-8524A721D549}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA457E78-5919-F84E-8BA9-2F62AEBDED34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="659" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6140" yWindow="740" windowWidth="23260" windowHeight="12580" tabRatio="659" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="COVID-19 Health Care Workers" sheetId="18" r:id="rId1"/>
@@ -41,6 +41,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -2424,14 +2426,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="6">
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
-    <numFmt numFmtId="166" formatCode="[$-409]d\-mmm\-yyyy;@"/>
-    <numFmt numFmtId="167" formatCode="0.0%"/>
-    <numFmt numFmtId="168" formatCode="#,##0\ \‡"/>
-    <numFmt numFmtId="169" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yyyy;@"/>
+    <numFmt numFmtId="166" formatCode="0.0%"/>
+    <numFmt numFmtId="167" formatCode="#,##0\ \‡"/>
+    <numFmt numFmtId="168" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="44" x14ac:knownFonts="1">
+  <fonts count="44">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2934,45 +2936,44 @@
     <xf numFmtId="0" fontId="19" fillId="5" borderId="3" applyNumberFormat="0" applyProtection="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="174">
+  <cellXfs count="138">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="3" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="3" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="5" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -2985,22 +2986,21 @@
     <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="19" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="19" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="15" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
       <protection hidden="1"/>
@@ -3009,53 +3009,46 @@
       <alignment horizontal="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="10" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="167" fontId="26" fillId="0" borderId="0" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="26" fillId="0" borderId="0" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="167" fontId="28" fillId="0" borderId="0" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="28" fillId="0" borderId="0" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="3" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="3" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3070,9 +3063,6 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="5" applyFill="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -3080,25 +3070,25 @@
       <alignment horizontal="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="19" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="19" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3109,25 +3099,19 @@
       <alignment horizontal="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="8" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="8" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="10" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="10" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="32" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="32" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="3" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="4" applyFont="1">
@@ -3136,23 +3120,20 @@
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="5" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyFont="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="12" applyFont="1" applyAlignment="1">
@@ -3161,10 +3142,10 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3172,52 +3153,41 @@
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="8" applyFont="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="8">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="8" fillId="0" borderId="8" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="8" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="167" fontId="8" fillId="0" borderId="0" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="10" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
@@ -3232,63 +3202,48 @@
     <xf numFmtId="49" fontId="11" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="11" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="15" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="3" fontId="8" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
     <xf numFmtId="3" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="167" fontId="8" fillId="0" borderId="10" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="10" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="3" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="168" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -3297,79 +3252,37 @@
     <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="15" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="15" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="42" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="8" fillId="0" borderId="1" xfId="21" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="1" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="169" fontId="8" fillId="0" borderId="1" xfId="21" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="15" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="167" fontId="8" fillId="0" borderId="1" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3384,20 +3297,17 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="15" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="15" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="15" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="15" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -3410,22 +3320,16 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3473,7 +3377,7 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="167" formatCode="0.0%"/>
+      <numFmt numFmtId="166" formatCode="0.0%"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -3672,7 +3576,7 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="166" formatCode="[$-409]d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yyyy;@"/>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
@@ -3761,7 +3665,7 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="167" formatCode="0.0%"/>
+      <numFmt numFmtId="166" formatCode="0.0%"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -3960,7 +3864,7 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="166" formatCode="[$-409]d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yyyy;@"/>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
@@ -4055,7 +3959,7 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="167" formatCode="0.0%"/>
+      <numFmt numFmtId="166" formatCode="0.0%"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -4244,7 +4148,7 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="166" formatCode="[$-409]d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yyyy;@"/>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
@@ -4338,7 +4242,7 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="167" formatCode="0.0%"/>
+      <numFmt numFmtId="166" formatCode="0.0%"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -4521,7 +4425,7 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="166" formatCode="[$-409]d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yyyy;@"/>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
@@ -4749,9 +4653,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -4789,9 +4693,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4824,26 +4728,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4876,26 +4763,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -5071,118 +4941,120 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:XFC21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A2" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="13.8" zeroHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="14" zeroHeight="1"/>
   <cols>
-    <col min="1" max="1" width="90.59765625" customWidth="1"/>
-    <col min="2" max="16382" width="9.09765625" hidden="1"/>
-    <col min="16383" max="16383" width="9.09765625" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="90.6640625" customWidth="1"/>
+    <col min="2" max="16382" width="9.1640625" hidden="1"/>
+    <col min="16383" max="16383" width="9.1640625" hidden="1" customWidth="1"/>
     <col min="16384" max="16384" width="7" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="83" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="136" t="s">
+    <row r="1" spans="1:1" s="74" customFormat="1" ht="15" hidden="1" customHeight="1">
+      <c r="A1" s="112" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="99.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="74" t="s">
+    <row r="2" spans="1:1" ht="100" customHeight="1">
+      <c r="A2" s="66" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:1" s="15" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="75" t="s">
+    <row r="3" spans="1:1" s="14" customFormat="1" ht="30" customHeight="1">
+      <c r="A3" s="59" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="4" spans="1:1" s="15" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="75" t="s">
+    <row r="4" spans="1:1" s="14" customFormat="1" ht="45" customHeight="1">
+      <c r="A4" s="59" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="5" spans="1:1" s="114" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="75" t="s">
+    <row r="5" spans="1:1" s="97" customFormat="1" ht="60" customHeight="1">
+      <c r="A5" s="59" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
+    <row r="6" spans="1:1" ht="40" customHeight="1">
+      <c r="A6" s="12" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
+    <row r="7" spans="1:1" ht="30" customHeight="1">
+      <c r="A7" s="7" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
+    <row r="8" spans="1:1" ht="40" customHeight="1">
+      <c r="A8" s="12" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
+    <row r="9" spans="1:1" ht="15" customHeight="1">
+      <c r="A9" s="6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
+    <row r="10" spans="1:1" ht="30" customHeight="1">
+      <c r="A10" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
+    <row r="11" spans="1:1">
+      <c r="A11" s="6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
+    <row r="12" spans="1:1" ht="30" customHeight="1">
+      <c r="A12" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
+    <row r="13" spans="1:1" ht="15" customHeight="1">
+      <c r="A13" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:1" s="135" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="67" t="s">
+    <row r="14" spans="1:1" s="16" customFormat="1" ht="15" customHeight="1">
+      <c r="A14" s="60" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="15" spans="1:1" s="135" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="67" t="s">
+    <row r="15" spans="1:1" s="16" customFormat="1" ht="15" customHeight="1">
+      <c r="A15" s="60" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="16" spans="1:1" s="135" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="67" t="s">
+    <row r="16" spans="1:1" s="16" customFormat="1" ht="15" customHeight="1">
+      <c r="A16" s="60" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="17" spans="1:1" s="135" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="67" t="s">
+    <row r="17" spans="1:1" s="16" customFormat="1" ht="15" customHeight="1">
+      <c r="A17" s="60" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="18" spans="1:1" s="68" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="67" t="s">
+    <row r="18" spans="1:1" s="16" customFormat="1" ht="29.25" customHeight="1">
+      <c r="A18" s="60" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
+    <row r="19" spans="1:1" ht="40" customHeight="1">
+      <c r="A19" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:1" s="88" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="75" t="s">
+    <row r="20" spans="1:1" s="14" customFormat="1" ht="30" customHeight="1">
+      <c r="A20" s="59" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="70" t="s">
+    <row r="21" spans="1:1" ht="83.25" customHeight="1">
+      <c r="A21" s="62" t="s">
         <v>103</v>
       </c>
     </row>
@@ -5218,21 +5090,21 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
     <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="3" max="3" width="16.59765625" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="1:3" ht="15">
+      <c r="B1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -5243,7 +5115,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -5254,7 +5126,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -5265,7 +5137,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -5276,7 +5148,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -5287,7 +5159,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>26</v>
       </c>
@@ -5298,7 +5170,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>29</v>
       </c>
@@ -5309,7 +5181,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>32</v>
       </c>
@@ -5320,18 +5192,18 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="8" t="s">
         <v>36</v>
       </c>
       <c r="C10" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>38</v>
       </c>
@@ -5342,7 +5214,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>41</v>
       </c>
@@ -5353,7 +5225,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>44</v>
       </c>
@@ -5364,7 +5236,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>47</v>
       </c>
@@ -5375,7 +5247,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>50</v>
       </c>
@@ -5401,76 +5273,76 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="10.59765625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:14">
+      <c r="A1" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="11" customFormat="1" ht="45.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="e">
+    <row r="2" spans="1:14" s="10" customFormat="1" ht="46" customHeight="1">
+      <c r="A2" s="9" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B2" s="11" t="e">
+      <c r="B2" s="10" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="C2" s="11" t="e">
+      <c r="C2" s="10" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="D2" s="11" t="e">
+      <c r="D2" s="10" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="E2" s="11" t="e">
+      <c r="E2" s="10" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="F2" s="11" t="e">
+      <c r="F2" s="10" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="G2" s="11" t="e">
+      <c r="G2" s="10" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="H2" s="11" t="e">
+      <c r="H2" s="10" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="I2" s="11" t="e">
+      <c r="I2" s="10" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="J2" s="11" t="e">
+      <c r="J2" s="10" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="K2" s="11" t="e">
+      <c r="K2" s="10" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="L2" s="11" t="e">
+      <c r="L2" s="10" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="M2" s="11" t="e">
+      <c r="M2" s="10" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="N2" s="11" t="e">
+      <c r="N2" s="10" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="e">
+    <row r="3" spans="1:14">
+      <c r="A3" s="3" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
@@ -5527,8 +5399,8 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="e">
+    <row r="4" spans="1:14">
+      <c r="A4" s="3" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
@@ -5585,8 +5457,8 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="e">
+    <row r="5" spans="1:14">
+      <c r="A5" s="3" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
@@ -5643,8 +5515,8 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="e">
+    <row r="6" spans="1:14">
+      <c r="A6" s="3" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
@@ -5701,8 +5573,8 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="e">
+    <row r="7" spans="1:14">
+      <c r="A7" s="3" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
@@ -5759,8 +5631,8 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="e">
+    <row r="8" spans="1:14">
+      <c r="A8" s="3" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
@@ -5817,8 +5689,8 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="e">
+    <row r="9" spans="1:14">
+      <c r="A9" s="3" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
@@ -5875,8 +5747,8 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="e">
+    <row r="10" spans="1:14">
+      <c r="A10" s="3" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
@@ -5933,8 +5805,8 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="e">
+    <row r="11" spans="1:14">
+      <c r="A11" s="3" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
@@ -5991,8 +5863,8 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="e">
+    <row r="12" spans="1:14">
+      <c r="A12" s="3" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
@@ -6049,8 +5921,8 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="e">
+    <row r="13" spans="1:14">
+      <c r="A13" s="3" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
@@ -6107,8 +5979,8 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="e">
+    <row r="14" spans="1:14">
+      <c r="A14" s="3" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
@@ -6165,8 +6037,8 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="e">
+    <row r="15" spans="1:14">
+      <c r="A15" s="3" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
@@ -6223,8 +6095,8 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="e">
+    <row r="16" spans="1:14">
+      <c r="A16" s="3" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
@@ -6281,8 +6153,8 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="e">
+    <row r="17" spans="1:14">
+      <c r="A17" s="3" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
@@ -6339,8 +6211,8 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="e">
+    <row r="18" spans="1:14">
+      <c r="A18" s="3" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
@@ -6397,8 +6269,8 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="e">
+    <row r="19" spans="1:14">
+      <c r="A19" s="3" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
@@ -6455,8 +6327,8 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="e">
+    <row r="20" spans="1:14">
+      <c r="A20" s="3" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
@@ -6513,8 +6385,8 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="e">
+    <row r="21" spans="1:14">
+      <c r="A21" s="3" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
@@ -6571,8 +6443,8 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="e">
+    <row r="22" spans="1:14">
+      <c r="A22" s="3" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
@@ -6629,8 +6501,8 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="e">
+    <row r="23" spans="1:14">
+      <c r="A23" s="3" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
@@ -6687,8 +6559,8 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="e">
+    <row r="24" spans="1:14">
+      <c r="A24" s="3" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
@@ -6745,8 +6617,8 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="e">
+    <row r="25" spans="1:14">
+      <c r="A25" s="3" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
@@ -6803,8 +6675,8 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="e">
+    <row r="26" spans="1:14">
+      <c r="A26" s="3" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
@@ -6861,8 +6733,8 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="e">
+    <row r="27" spans="1:14">
+      <c r="A27" s="3" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
@@ -6919,8 +6791,8 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="e">
+    <row r="28" spans="1:14">
+      <c r="A28" s="3" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
@@ -6977,8 +6849,8 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="e">
+    <row r="29" spans="1:14">
+      <c r="A29" s="3" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
@@ -7035,8 +6907,8 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="e">
+    <row r="30" spans="1:14">
+      <c r="A30" s="3" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
@@ -7093,8 +6965,8 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="e">
+    <row r="31" spans="1:14">
+      <c r="A31" s="3" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
@@ -7151,8 +7023,8 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="e">
+    <row r="32" spans="1:14">
+      <c r="A32" s="3" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
@@ -7209,8 +7081,8 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="e">
+    <row r="33" spans="1:14">
+      <c r="A33" s="3" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
@@ -7267,8 +7139,8 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" s="4" t="e">
+    <row r="34" spans="1:14">
+      <c r="A34" s="3" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
@@ -7325,8 +7197,8 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35" s="4" t="e">
+    <row r="35" spans="1:14">
+      <c r="A35" s="3" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
@@ -7383,8 +7255,8 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" s="4" t="e">
+    <row r="36" spans="1:14">
+      <c r="A36" s="3" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
@@ -7441,8 +7313,8 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37" s="4" t="e">
+    <row r="37" spans="1:14">
+      <c r="A37" s="3" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
@@ -7499,8 +7371,8 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" s="4" t="e">
+    <row r="38" spans="1:14">
+      <c r="A38" s="3" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
@@ -7557,8 +7429,8 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A39" s="4" t="e">
+    <row r="39" spans="1:14">
+      <c r="A39" s="3" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
@@ -7615,8 +7487,8 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A40" s="4" t="e">
+    <row r="40" spans="1:14">
+      <c r="A40" s="3" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
@@ -7673,8 +7545,8 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A41" s="4" t="e">
+    <row r="41" spans="1:14">
+      <c r="A41" s="3" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
@@ -7731,8 +7603,8 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A42" s="4" t="e">
+    <row r="42" spans="1:14">
+      <c r="A42" s="3" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
@@ -7789,8 +7661,8 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A43" s="4" t="e">
+    <row r="43" spans="1:14">
+      <c r="A43" s="3" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
@@ -7847,8 +7719,8 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A44" s="4" t="e">
+    <row r="44" spans="1:14">
+      <c r="A44" s="3" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
@@ -7905,8 +7777,8 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A45" s="4" t="e">
+    <row r="45" spans="1:14">
+      <c r="A45" s="3" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
@@ -7963,8 +7835,8 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A46" s="4" t="e">
+    <row r="46" spans="1:14">
+      <c r="A46" s="3" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
@@ -8021,8 +7893,8 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A47" s="4" t="e">
+    <row r="47" spans="1:14">
+      <c r="A47" s="3" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
@@ -8079,8 +7951,8 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A48" s="4" t="e">
+    <row r="48" spans="1:14">
+      <c r="A48" s="3" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
@@ -8137,8 +8009,8 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A49" s="4" t="e">
+    <row r="49" spans="1:14">
+      <c r="A49" s="3" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
@@ -8195,8 +8067,8 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A50" s="4" t="e">
+    <row r="50" spans="1:14">
+      <c r="A50" s="3" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
@@ -8253,8 +8125,8 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A51" s="4" t="e">
+    <row r="51" spans="1:14">
+      <c r="A51" s="3" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
@@ -8311,8 +8183,8 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A52" s="4" t="e">
+    <row r="52" spans="1:14">
+      <c r="A52" s="3" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
@@ -8369,8 +8241,8 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A53" s="4" t="e">
+    <row r="53" spans="1:14">
+      <c r="A53" s="3" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
@@ -8427,8 +8299,8 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A54" s="4" t="e">
+    <row r="54" spans="1:14">
+      <c r="A54" s="3" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
@@ -8485,8 +8357,8 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A55" s="4" t="e">
+    <row r="55" spans="1:14">
+      <c r="A55" s="3" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
@@ -8543,8 +8415,8 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A56" s="4" t="e">
+    <row r="56" spans="1:14">
+      <c r="A56" s="3" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
@@ -8601,8 +8473,8 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A57" s="4" t="e">
+    <row r="57" spans="1:14">
+      <c r="A57" s="3" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
@@ -8659,8 +8531,8 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A58" s="4" t="e">
+    <row r="58" spans="1:14">
+      <c r="A58" s="3" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
@@ -8717,8 +8589,8 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A59" s="4" t="e">
+    <row r="59" spans="1:14">
+      <c r="A59" s="3" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
@@ -8775,8 +8647,8 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A60" s="4" t="e">
+    <row r="60" spans="1:14">
+      <c r="A60" s="3" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
@@ -8833,8 +8705,8 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A61" s="4" t="e">
+    <row r="61" spans="1:14">
+      <c r="A61" s="3" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
@@ -8891,8 +8763,8 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A62" s="4" t="e">
+    <row r="62" spans="1:14">
+      <c r="A62" s="3" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
@@ -8949,8 +8821,8 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A63" s="4" t="e">
+    <row r="63" spans="1:14">
+      <c r="A63" s="3" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
@@ -9007,8 +8879,8 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A64" s="4" t="e">
+    <row r="64" spans="1:14">
+      <c r="A64" s="3" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
@@ -9065,8 +8937,8 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A65" s="4" t="e">
+    <row r="65" spans="1:14">
+      <c r="A65" s="3" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
@@ -9123,8 +8995,8 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A66" s="4" t="e">
+    <row r="66" spans="1:14">
+      <c r="A66" s="3" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
@@ -9181,8 +9053,8 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A67" s="4" t="e">
+    <row r="67" spans="1:14">
+      <c r="A67" s="3" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
@@ -9239,8 +9111,8 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A68" s="4" t="e">
+    <row r="68" spans="1:14">
+      <c r="A68" s="3" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
@@ -9297,8 +9169,8 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A69" s="4" t="e">
+    <row r="69" spans="1:14">
+      <c r="A69" s="3" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
@@ -9355,8 +9227,8 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A70" s="4" t="e">
+    <row r="70" spans="1:14">
+      <c r="A70" s="3" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
@@ -9413,8 +9285,8 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A71" s="4" t="e">
+    <row r="71" spans="1:14">
+      <c r="A71" s="3" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
@@ -9471,8 +9343,8 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A72" s="4" t="e">
+    <row r="72" spans="1:14">
+      <c r="A72" s="3" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
@@ -9529,8 +9401,8 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A73" s="4" t="e">
+    <row r="73" spans="1:14">
+      <c r="A73" s="3" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
@@ -9587,8 +9459,8 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A74" s="4" t="e">
+    <row r="74" spans="1:14">
+      <c r="A74" s="3" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
@@ -9645,8 +9517,8 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A75" s="4" t="e">
+    <row r="75" spans="1:14">
+      <c r="A75" s="3" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
@@ -9703,8 +9575,8 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A76" s="4" t="e">
+    <row r="76" spans="1:14">
+      <c r="A76" s="3" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
@@ -9761,8 +9633,8 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A77" s="4" t="e">
+    <row r="77" spans="1:14">
+      <c r="A77" s="3" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
@@ -9819,8 +9691,8 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A78" s="4" t="e">
+    <row r="78" spans="1:14">
+      <c r="A78" s="3" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
@@ -9877,8 +9749,8 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A79" s="4" t="e">
+    <row r="79" spans="1:14">
+      <c r="A79" s="3" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
@@ -9935,8 +9807,8 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A80" s="4" t="e">
+    <row r="80" spans="1:14">
+      <c r="A80" s="3" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
@@ -9993,8 +9865,8 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A81" s="4" t="e">
+    <row r="81" spans="1:14">
+      <c r="A81" s="3" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
@@ -10051,8 +9923,8 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A82" s="4" t="e">
+    <row r="82" spans="1:14">
+      <c r="A82" s="3" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
@@ -10109,8 +9981,8 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A83" s="4" t="e">
+    <row r="83" spans="1:14">
+      <c r="A83" s="3" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
@@ -10167,8 +10039,8 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A84" s="4" t="e">
+    <row r="84" spans="1:14">
+      <c r="A84" s="3" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
@@ -10225,8 +10097,8 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A85" s="4" t="e">
+    <row r="85" spans="1:14">
+      <c r="A85" s="3" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
@@ -10283,8 +10155,8 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A86" s="4" t="e">
+    <row r="86" spans="1:14">
+      <c r="A86" s="3" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
@@ -10341,8 +10213,8 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A87" s="4" t="e">
+    <row r="87" spans="1:14">
+      <c r="A87" s="3" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
@@ -10399,8 +10271,8 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A88" s="4" t="e">
+    <row r="88" spans="1:14">
+      <c r="A88" s="3" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
@@ -10457,8 +10329,8 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A89" s="4" t="e">
+    <row r="89" spans="1:14">
+      <c r="A89" s="3" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
@@ -10515,8 +10387,8 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A90" s="4" t="e">
+    <row r="90" spans="1:14">
+      <c r="A90" s="3" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
@@ -10573,8 +10445,8 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A91" s="4" t="e">
+    <row r="91" spans="1:14">
+      <c r="A91" s="3" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
@@ -10631,8 +10503,8 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A92" s="4" t="e">
+    <row r="92" spans="1:14">
+      <c r="A92" s="3" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
@@ -10689,8 +10561,8 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A93" s="4" t="e">
+    <row r="93" spans="1:14">
+      <c r="A93" s="3" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
@@ -10762,43 +10634,43 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="13.8" zeroHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="14" zeroHeight="1"/>
   <cols>
-    <col min="1" max="1" width="80.59765625" style="47" customWidth="1"/>
+    <col min="1" max="1" width="80.6640625" style="42" customWidth="1"/>
     <col min="2" max="2" width="0" hidden="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.09765625" hidden="1"/>
+    <col min="3" max="16384" width="9.1640625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
+    <row r="1" spans="1:2" ht="50" customHeight="1">
+      <c r="A1" s="44" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="50" t="s">
+    <row r="2" spans="1:2" ht="35" customHeight="1">
+      <c r="A2" s="7" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="50" t="s">
+    <row r="3" spans="1:2" ht="35" customHeight="1">
+      <c r="A3" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="B3" s="50"/>
-    </row>
-    <row r="4" spans="1:2" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="50" t="s">
+      <c r="B3" s="7"/>
+    </row>
+    <row r="4" spans="1:2" ht="35" customHeight="1">
+      <c r="A4" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="B4" s="50"/>
-    </row>
-    <row r="5" spans="1:2" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="50" t="s">
+      <c r="B4" s="7"/>
+    </row>
+    <row r="5" spans="1:2" ht="35" customHeight="1">
+      <c r="A5" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="B5" s="50"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="69" t="s">
+      <c r="B5" s="7"/>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="61" t="s">
         <v>103</v>
       </c>
     </row>
@@ -10823,51 +10695,51 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="13.8" zeroHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="14" zeroHeight="1"/>
   <cols>
-    <col min="1" max="1" width="83.59765625" customWidth="1"/>
+    <col min="1" max="1" width="83.6640625" customWidth="1"/>
     <col min="2" max="2" width="0" hidden="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.09765625" hidden="1"/>
+    <col min="3" max="16384" width="9.1640625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:2" ht="50" customHeight="1">
+      <c r="A1" s="11" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="84" t="s">
+    <row r="2" spans="1:2" ht="40" customHeight="1">
+      <c r="A2" s="75" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="85" t="s">
+    <row r="3" spans="1:2" ht="105" customHeight="1">
+      <c r="A3" s="76" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="4" spans="1:2" s="19" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="48" t="s">
+    <row r="4" spans="1:2" s="18" customFormat="1" ht="40" customHeight="1">
+      <c r="A4" s="43" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="5" spans="1:2" s="15" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="66" t="s">
+    <row r="5" spans="1:2" s="14" customFormat="1" ht="75" customHeight="1">
+      <c r="A5" s="59" t="s">
         <v>184</v>
       </c>
-      <c r="B5" s="66"/>
-    </row>
-    <row r="6" spans="1:2" s="16" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="65" t="s">
+      <c r="B5" s="59"/>
+    </row>
+    <row r="6" spans="1:2" s="15" customFormat="1" ht="30" customHeight="1">
+      <c r="A6" s="59" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="69" t="s">
+    <row r="7" spans="1:2" ht="15" customHeight="1">
+      <c r="A7" s="61" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="14"/>
+    <row r="8" spans="1:2" ht="50" hidden="1" customHeight="1">
+      <c r="A8" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.70866141732283505" right="0.70866141732283505" top="0.74803149606299202" bottom="0.74803149606299202" header="0.31496062992126" footer="0.31496062992126"/>
@@ -10882,746 +10754,712 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2425626A-7395-47F6-AED5-59861AA08A6F}">
   <dimension ref="A1:AA51"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="13.8" zeroHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="14" zeroHeight="1"/>
   <cols>
-    <col min="1" max="1" width="25.59765625" style="15" customWidth="1"/>
-    <col min="2" max="3" width="20.59765625" style="15" customWidth="1"/>
-    <col min="4" max="4" width="28.59765625" style="15" customWidth="1"/>
-    <col min="5" max="6" width="20.59765625" style="15" customWidth="1"/>
-    <col min="7" max="10" width="24.59765625" style="15" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="25.59765625" style="15" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="33.3984375" style="15" hidden="1" customWidth="1"/>
-    <col min="13" max="16" width="20.59765625" style="15" hidden="1" customWidth="1"/>
-    <col min="17" max="26" width="18.09765625" style="15" hidden="1" customWidth="1"/>
-    <col min="27" max="27" width="11.8984375" style="15" hidden="1" customWidth="1"/>
-    <col min="28" max="16384" width="9" style="15" hidden="1"/>
+    <col min="1" max="1" width="25.6640625" style="14" customWidth="1"/>
+    <col min="2" max="3" width="20.6640625" style="14" customWidth="1"/>
+    <col min="4" max="4" width="28.6640625" style="14" customWidth="1"/>
+    <col min="5" max="6" width="20.6640625" style="14" customWidth="1"/>
+    <col min="7" max="10" width="24.6640625" style="14" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="25.6640625" style="14" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="33.33203125" style="14" hidden="1" customWidth="1"/>
+    <col min="13" max="16" width="20.6640625" style="14" hidden="1" customWidth="1"/>
+    <col min="17" max="26" width="18.1640625" style="14" hidden="1" customWidth="1"/>
+    <col min="27" max="27" width="11.83203125" style="14" hidden="1" customWidth="1"/>
+    <col min="28" max="16384" width="9" style="14" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="78" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="78" t="s">
+    <row r="1" spans="1:13" s="69" customFormat="1" ht="15" hidden="1" customHeight="1">
+      <c r="A1" s="69" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="139" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="137" t="s">
+    <row r="2" spans="1:13" s="114" customFormat="1" ht="24" customHeight="1">
+      <c r="A2" s="45" t="s">
         <v>102</v>
       </c>
-      <c r="B2" s="138"/>
-    </row>
-    <row r="3" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="77" t="s">
+      <c r="B2" s="113"/>
+    </row>
+    <row r="3" spans="1:13" ht="20.25" customHeight="1">
+      <c r="A3" s="68" t="s">
         <v>188</v>
       </c>
-      <c r="B3" s="77"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="86"/>
-      <c r="H3" s="86"/>
-      <c r="I3" s="86"/>
-      <c r="J3" s="86"/>
-      <c r="K3" s="86"/>
-      <c r="L3" s="87"/>
-      <c r="M3" s="87"/>
-      <c r="N3" s="88"/>
-    </row>
-    <row r="4" spans="1:14" s="129" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="60" t="s">
+      <c r="B3" s="68"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="L3" s="77"/>
+      <c r="M3" s="77"/>
+    </row>
+    <row r="4" spans="1:13" s="109" customFormat="1" ht="45" customHeight="1">
+      <c r="A4" s="54" t="s">
         <v>54</v>
       </c>
-      <c r="B4" s="61" t="s">
+      <c r="B4" s="55" t="s">
         <v>80</v>
       </c>
-      <c r="C4" s="61" t="s">
+      <c r="C4" s="55" t="s">
         <v>81</v>
       </c>
-      <c r="D4" s="28" t="s">
+      <c r="D4" s="26" t="s">
         <v>165</v>
       </c>
-      <c r="E4" s="61" t="s">
+      <c r="E4" s="55" t="s">
         <v>166</v>
       </c>
-      <c r="F4" s="73" t="s">
+      <c r="F4" s="65" t="s">
         <v>131</v>
       </c>
-      <c r="G4" s="43"/>
-      <c r="H4" s="43"/>
-      <c r="I4" s="43"/>
-      <c r="J4" s="43"/>
-      <c r="K4" s="43"/>
-      <c r="L4" s="43"/>
-      <c r="M4" s="127"/>
-      <c r="N4" s="128"/>
-    </row>
-    <row r="5" spans="1:14" s="143" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="22" t="s">
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="39"/>
+      <c r="L4" s="39"/>
+      <c r="M4" s="108"/>
+    </row>
+    <row r="5" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1">
+      <c r="A5" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="B5" s="121">
+      <c r="B5" s="67">
         <v>992</v>
       </c>
-      <c r="C5" s="76">
+      <c r="C5" s="67">
         <v>0</v>
       </c>
-      <c r="D5" s="76" t="s">
+      <c r="D5" s="67" t="s">
         <v>85</v>
       </c>
-      <c r="E5" s="120">
+      <c r="E5" s="102">
         <v>12092</v>
       </c>
-      <c r="F5" s="147">
+      <c r="F5" s="116">
         <f>B5/E5</f>
         <v>8.2037710883228587E-2</v>
       </c>
-      <c r="G5" s="90"/>
-      <c r="H5" s="90"/>
-      <c r="I5" s="90"/>
-      <c r="J5" s="90"/>
-      <c r="K5" s="91"/>
-      <c r="L5" s="92"/>
-    </row>
-    <row r="6" spans="1:14" s="143" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="22" t="s">
+      <c r="G5" s="79"/>
+      <c r="H5" s="79"/>
+      <c r="I5" s="79"/>
+      <c r="J5" s="79"/>
+      <c r="K5" s="80"/>
+      <c r="L5" s="81"/>
+    </row>
+    <row r="6" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1">
+      <c r="A6" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="B6" s="76">
+      <c r="B6" s="67">
         <v>2</v>
       </c>
-      <c r="C6" s="76">
+      <c r="C6" s="67">
         <v>0</v>
       </c>
-      <c r="D6" s="76" t="s">
+      <c r="D6" s="67" t="s">
         <v>85</v>
       </c>
-      <c r="E6" s="120">
+      <c r="E6" s="102">
         <v>3861</v>
       </c>
-      <c r="F6" s="76" t="s">
+      <c r="F6" s="67" t="s">
         <v>85</v>
       </c>
-      <c r="G6" s="90"/>
-      <c r="H6" s="90"/>
-      <c r="I6" s="90"/>
-      <c r="J6" s="90"/>
-      <c r="K6" s="91"/>
-      <c r="L6" s="92"/>
-    </row>
-    <row r="7" spans="1:14" s="143" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="22" t="s">
+      <c r="G6" s="79"/>
+      <c r="H6" s="79"/>
+      <c r="I6" s="79"/>
+      <c r="J6" s="79"/>
+      <c r="K6" s="80"/>
+      <c r="L6" s="81"/>
+    </row>
+    <row r="7" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1">
+      <c r="A7" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="B7" s="76">
+      <c r="B7" s="67">
         <v>737</v>
       </c>
-      <c r="C7" s="76">
+      <c r="C7" s="67">
         <v>0</v>
       </c>
-      <c r="D7" s="76" t="s">
+      <c r="D7" s="67" t="s">
         <v>85</v>
       </c>
-      <c r="E7" s="140">
+      <c r="E7" s="101">
         <v>29627</v>
       </c>
-      <c r="F7" s="89">
+      <c r="F7" s="78">
         <f>B7/E7</f>
         <v>2.4875957741249535E-2</v>
       </c>
-      <c r="G7" s="90"/>
-      <c r="H7" s="90"/>
-      <c r="I7" s="90"/>
-      <c r="J7" s="93"/>
-      <c r="K7" s="91"/>
-      <c r="L7" s="92"/>
-    </row>
-    <row r="8" spans="1:14" s="143" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="22" t="s">
+      <c r="G7" s="79"/>
+      <c r="H7" s="79"/>
+      <c r="I7" s="79"/>
+      <c r="J7" s="82"/>
+      <c r="K7" s="80"/>
+      <c r="L7" s="81"/>
+    </row>
+    <row r="8" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1">
+      <c r="A8" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="B8" s="76">
+      <c r="B8" s="67">
         <v>227</v>
       </c>
-      <c r="C8" s="76">
+      <c r="C8" s="67">
         <v>0</v>
       </c>
-      <c r="D8" s="76" t="s">
+      <c r="D8" s="67" t="s">
         <v>85</v>
       </c>
-      <c r="E8" s="142">
+      <c r="E8" s="115">
         <v>21979</v>
       </c>
-      <c r="F8" s="76" t="s">
+      <c r="F8" s="67" t="s">
         <v>85</v>
       </c>
-      <c r="G8" s="90"/>
-      <c r="H8" s="90"/>
-      <c r="I8" s="90"/>
-      <c r="J8" s="90"/>
-      <c r="K8" s="91"/>
-      <c r="L8" s="92"/>
-    </row>
-    <row r="9" spans="1:14" s="143" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="22" t="s">
+      <c r="G8" s="79"/>
+      <c r="H8" s="79"/>
+      <c r="I8" s="79"/>
+      <c r="J8" s="79"/>
+      <c r="K8" s="80"/>
+      <c r="L8" s="81"/>
+    </row>
+    <row r="9" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1">
+      <c r="A9" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="B9" s="120">
+      <c r="B9" s="102">
         <v>71847</v>
       </c>
-      <c r="C9" s="76">
+      <c r="C9" s="67">
         <v>13</v>
       </c>
-      <c r="D9" s="76">
+      <c r="D9" s="67">
         <v>41</v>
       </c>
-      <c r="E9" s="124">
+      <c r="E9" s="105">
         <v>789807</v>
       </c>
-      <c r="F9" s="89">
+      <c r="F9" s="78">
         <f t="shared" ref="F9:F12" si="0">B9/E9</f>
         <v>9.0967793397627519E-2</v>
       </c>
-      <c r="G9" s="93"/>
-      <c r="H9" s="90"/>
-      <c r="I9" s="90"/>
-      <c r="J9" s="93"/>
-      <c r="K9" s="91"/>
-      <c r="L9" s="92"/>
-    </row>
-    <row r="10" spans="1:14" s="143" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="22" t="s">
+      <c r="G9" s="82"/>
+      <c r="H9" s="79"/>
+      <c r="I9" s="79"/>
+      <c r="J9" s="82"/>
+      <c r="K9" s="80"/>
+      <c r="L9" s="81"/>
+    </row>
+    <row r="10" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1">
+      <c r="A10" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="B10" s="120">
+      <c r="B10" s="102">
         <v>30428</v>
       </c>
-      <c r="C10" s="76">
+      <c r="C10" s="67">
         <v>17</v>
       </c>
-      <c r="D10" s="76">
+      <c r="D10" s="67">
         <v>14</v>
       </c>
-      <c r="E10" s="124">
+      <c r="E10" s="105">
         <v>926904</v>
       </c>
-      <c r="F10" s="89">
+      <c r="F10" s="78">
         <f>B10/E10</f>
         <v>3.2827563588030691E-2</v>
       </c>
-      <c r="G10" s="93"/>
-      <c r="H10" s="90"/>
-      <c r="I10" s="90"/>
-      <c r="J10" s="93"/>
-      <c r="K10" s="91"/>
-      <c r="L10" s="92"/>
-    </row>
-    <row r="11" spans="1:14" s="143" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="22" t="s">
+      <c r="G10" s="82"/>
+      <c r="H10" s="79"/>
+      <c r="I10" s="79"/>
+      <c r="J10" s="82"/>
+      <c r="K10" s="80"/>
+      <c r="L10" s="81"/>
+    </row>
+    <row r="11" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1">
+      <c r="A11" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="B11" s="119">
+      <c r="B11" s="101">
         <v>5413</v>
       </c>
-      <c r="C11" s="76">
+      <c r="C11" s="67">
         <v>5</v>
       </c>
-      <c r="D11" s="76">
+      <c r="D11" s="67">
         <v>0</v>
       </c>
-      <c r="E11" s="140">
+      <c r="E11" s="101">
         <v>107838</v>
       </c>
-      <c r="F11" s="89">
+      <c r="F11" s="78">
         <f t="shared" si="0"/>
         <v>5.0195663866169624E-2</v>
       </c>
-      <c r="G11" s="90"/>
-      <c r="H11" s="90"/>
-      <c r="I11" s="90"/>
-      <c r="J11" s="93"/>
-      <c r="K11" s="91"/>
-      <c r="L11" s="92"/>
-    </row>
-    <row r="12" spans="1:14" s="143" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="22" t="s">
+      <c r="G11" s="79"/>
+      <c r="H11" s="79"/>
+      <c r="I11" s="79"/>
+      <c r="J11" s="82"/>
+      <c r="K11" s="80"/>
+      <c r="L11" s="81"/>
+    </row>
+    <row r="12" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1">
+      <c r="A12" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="B12" s="119">
+      <c r="B12" s="101">
         <v>3929</v>
       </c>
-      <c r="C12" s="76">
+      <c r="C12" s="67">
         <v>1</v>
       </c>
-      <c r="D12" s="76">
+      <c r="D12" s="67">
         <v>0</v>
       </c>
-      <c r="E12" s="120">
+      <c r="E12" s="102">
         <v>98699</v>
       </c>
-      <c r="F12" s="89">
+      <c r="F12" s="78">
         <f t="shared" si="0"/>
         <v>3.980790078926838E-2</v>
       </c>
-      <c r="G12" s="90"/>
-      <c r="H12" s="90"/>
-      <c r="I12" s="90"/>
-      <c r="J12" s="93"/>
-      <c r="K12" s="91"/>
-      <c r="L12" s="92"/>
-    </row>
-    <row r="13" spans="1:14" s="143" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="22" t="s">
+      <c r="G12" s="79"/>
+      <c r="H12" s="79"/>
+      <c r="I12" s="79"/>
+      <c r="J12" s="82"/>
+      <c r="K12" s="80"/>
+      <c r="L12" s="81"/>
+    </row>
+    <row r="13" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1">
+      <c r="A13" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="B13" s="119">
+      <c r="B13" s="101">
         <v>26011</v>
       </c>
-      <c r="C13" s="76">
+      <c r="C13" s="67">
         <v>10</v>
       </c>
-      <c r="D13" s="76">
+      <c r="D13" s="67">
         <v>0</v>
       </c>
-      <c r="E13" s="140">
+      <c r="E13" s="101">
         <v>430332</v>
       </c>
-      <c r="F13" s="89">
+      <c r="F13" s="78">
         <f>B13/E13</f>
         <v>6.0444029261128615E-2</v>
       </c>
-      <c r="G13" s="93"/>
-      <c r="H13" s="90"/>
-      <c r="I13" s="90"/>
-      <c r="J13" s="93"/>
-      <c r="K13" s="91"/>
-      <c r="L13" s="92"/>
-    </row>
-    <row r="14" spans="1:14" s="143" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="22" t="s">
+      <c r="G13" s="82"/>
+      <c r="H13" s="79"/>
+      <c r="I13" s="79"/>
+      <c r="J13" s="82"/>
+      <c r="K13" s="80"/>
+      <c r="L13" s="81"/>
+    </row>
+    <row r="14" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1">
+      <c r="A14" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="B14" s="119">
+      <c r="B14" s="101">
         <v>10960</v>
       </c>
-      <c r="C14" s="76" t="s">
+      <c r="C14" s="67" t="s">
         <v>85</v>
       </c>
-      <c r="D14" s="76" t="s">
+      <c r="D14" s="67" t="s">
         <v>85</v>
       </c>
-      <c r="E14" s="122">
+      <c r="E14" s="103">
         <v>204330</v>
       </c>
-      <c r="F14" s="89">
+      <c r="F14" s="78">
         <f>B14/E14</f>
         <v>5.3638721675720646E-2</v>
       </c>
-      <c r="G14" s="93"/>
-      <c r="H14" s="90"/>
-      <c r="I14" s="90"/>
-      <c r="J14" s="93"/>
-      <c r="K14" s="91"/>
-      <c r="L14" s="92"/>
-    </row>
-    <row r="15" spans="1:14" s="143" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="22" t="s">
+      <c r="G14" s="82"/>
+      <c r="H14" s="79"/>
+      <c r="I14" s="79"/>
+      <c r="J14" s="82"/>
+      <c r="K14" s="80"/>
+      <c r="L14" s="81"/>
+    </row>
+    <row r="15" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1">
+      <c r="A15" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="B15" s="76" t="s">
+      <c r="B15" s="67" t="s">
         <v>85</v>
       </c>
-      <c r="C15" s="76" t="s">
+      <c r="C15" s="67" t="s">
         <v>85</v>
       </c>
-      <c r="D15" s="76" t="s">
+      <c r="D15" s="67" t="s">
         <v>85</v>
       </c>
-      <c r="E15" s="120">
+      <c r="E15" s="102">
         <v>2638</v>
       </c>
-      <c r="F15" s="76" t="s">
+      <c r="F15" s="67" t="s">
         <v>85</v>
       </c>
-      <c r="G15" s="90"/>
-      <c r="H15" s="90"/>
-      <c r="I15" s="90"/>
-      <c r="J15" s="90"/>
-      <c r="K15" s="91"/>
-      <c r="L15" s="91"/>
-    </row>
-    <row r="16" spans="1:14" s="143" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="22" t="s">
+      <c r="G15" s="79"/>
+      <c r="H15" s="79"/>
+      <c r="I15" s="79"/>
+      <c r="J15" s="79"/>
+      <c r="K15" s="80"/>
+      <c r="L15" s="80"/>
+    </row>
+    <row r="16" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1">
+      <c r="A16" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="B16" s="76" t="s">
+      <c r="B16" s="67" t="s">
         <v>85</v>
       </c>
-      <c r="C16" s="76" t="s">
+      <c r="C16" s="67" t="s">
         <v>85</v>
       </c>
-      <c r="D16" s="76" t="s">
+      <c r="D16" s="67" t="s">
         <v>85</v>
       </c>
-      <c r="E16" s="120">
+      <c r="E16" s="102">
         <v>3741</v>
       </c>
-      <c r="F16" s="76" t="s">
+      <c r="F16" s="67" t="s">
         <v>85</v>
       </c>
-      <c r="G16" s="90"/>
-      <c r="H16" s="90"/>
-      <c r="I16" s="90"/>
-      <c r="J16" s="90"/>
-      <c r="K16" s="91"/>
-      <c r="L16" s="91"/>
-    </row>
-    <row r="17" spans="1:12" s="143" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="22" t="s">
+      <c r="G16" s="79"/>
+      <c r="H16" s="79"/>
+      <c r="I16" s="79"/>
+      <c r="J16" s="79"/>
+      <c r="K16" s="80"/>
+      <c r="L16" s="80"/>
+    </row>
+    <row r="17" spans="1:12" s="15" customFormat="1" ht="15" customHeight="1">
+      <c r="A17" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="B17" s="121" t="s">
+      <c r="B17" s="67" t="s">
         <v>164</v>
       </c>
-      <c r="C17" s="121" t="s">
+      <c r="C17" s="67" t="s">
         <v>164</v>
       </c>
-      <c r="D17" s="76" t="s">
+      <c r="D17" s="67" t="s">
         <v>85</v>
       </c>
-      <c r="E17" s="120">
+      <c r="E17" s="102">
         <v>1055</v>
       </c>
-      <c r="F17" s="76" t="s">
+      <c r="F17" s="67" t="s">
         <v>85</v>
       </c>
-      <c r="G17" s="90"/>
-      <c r="H17" s="90"/>
-      <c r="I17" s="90"/>
-      <c r="J17" s="90"/>
-      <c r="K17" s="91"/>
-      <c r="L17" s="91"/>
-    </row>
-    <row r="18" spans="1:12" s="143" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="55" t="s">
+      <c r="G17" s="79"/>
+      <c r="H17" s="79"/>
+      <c r="I17" s="79"/>
+      <c r="J17" s="79"/>
+      <c r="K17" s="80"/>
+      <c r="L17" s="80"/>
+    </row>
+    <row r="18" spans="1:12" s="15" customFormat="1" ht="15" customHeight="1">
+      <c r="A18" s="49" t="s">
         <v>170</v>
       </c>
-      <c r="B18" s="125">
+      <c r="B18" s="106">
         <v>150546</v>
       </c>
-      <c r="C18" s="125">
+      <c r="C18" s="106">
         <v>46</v>
       </c>
-      <c r="D18" s="95">
+      <c r="D18" s="84">
         <v>55</v>
       </c>
-      <c r="E18" s="148">
+      <c r="E18" s="107">
         <v>2632916</v>
       </c>
-      <c r="F18" s="123">
+      <c r="F18" s="104">
         <v>5.7822192440343707E-2</v>
       </c>
-      <c r="G18" s="93"/>
-      <c r="H18" s="90"/>
-      <c r="I18" s="90"/>
-      <c r="J18" s="93"/>
-      <c r="K18" s="91"/>
-      <c r="L18" s="92"/>
-    </row>
-    <row r="19" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="157" t="s">
+      <c r="G18" s="82"/>
+      <c r="H18" s="79"/>
+      <c r="I18" s="79"/>
+      <c r="J18" s="82"/>
+      <c r="K18" s="80"/>
+      <c r="L18" s="81"/>
+    </row>
+    <row r="19" spans="1:12" ht="17.25" customHeight="1">
+      <c r="A19" s="124" t="s">
         <v>74</v>
       </c>
-      <c r="B19" s="158"/>
-      <c r="C19" s="158"/>
-      <c r="D19" s="158"/>
-      <c r="E19" s="158"/>
-      <c r="F19" s="158"/>
-      <c r="G19" s="132"/>
-      <c r="H19" s="86"/>
-      <c r="I19" s="86"/>
-      <c r="J19" s="86"/>
-      <c r="K19" s="86"/>
-      <c r="L19" s="86"/>
-    </row>
-    <row r="20" spans="1:12" s="143" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="159" t="s">
+      <c r="B19" s="125"/>
+      <c r="C19" s="125"/>
+      <c r="D19" s="125"/>
+      <c r="E19" s="125"/>
+      <c r="F19" s="125"/>
+      <c r="G19" s="25"/>
+    </row>
+    <row r="20" spans="1:12" s="15" customFormat="1" ht="24" customHeight="1">
+      <c r="A20" s="126" t="s">
         <v>208</v>
       </c>
-      <c r="B20" s="159"/>
-      <c r="C20" s="159"/>
-      <c r="D20" s="159"/>
-      <c r="E20" s="159"/>
-      <c r="F20" s="154"/>
-      <c r="G20" s="97"/>
-      <c r="H20" s="97"/>
-      <c r="I20" s="97"/>
-      <c r="J20" s="97"/>
-      <c r="K20" s="97"/>
-    </row>
-    <row r="21" spans="1:12" s="143" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="159" t="s">
+      <c r="B20" s="126"/>
+      <c r="C20" s="126"/>
+      <c r="D20" s="126"/>
+      <c r="E20" s="126"/>
+      <c r="F20" s="121"/>
+    </row>
+    <row r="21" spans="1:12" s="15" customFormat="1" ht="24" customHeight="1">
+      <c r="A21" s="126" t="s">
         <v>209</v>
       </c>
-      <c r="B21" s="159"/>
-      <c r="C21" s="159"/>
-      <c r="D21" s="159"/>
-      <c r="E21" s="159"/>
-      <c r="F21" s="159"/>
-      <c r="G21" s="97"/>
-      <c r="H21" s="97"/>
-      <c r="I21" s="97"/>
-      <c r="J21" s="97"/>
-      <c r="K21" s="97"/>
-    </row>
-    <row r="22" spans="1:12" s="143" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="144" t="s">
+      <c r="B21" s="126"/>
+      <c r="C21" s="126"/>
+      <c r="D21" s="126"/>
+      <c r="E21" s="126"/>
+      <c r="F21" s="126"/>
+    </row>
+    <row r="22" spans="1:12" s="15" customFormat="1" ht="12" customHeight="1">
+      <c r="A22" s="110" t="s">
         <v>171</v>
       </c>
-      <c r="B22" s="144"/>
-      <c r="C22" s="144"/>
-      <c r="D22" s="144"/>
-      <c r="E22" s="144"/>
-      <c r="F22" s="144"/>
-      <c r="G22" s="97"/>
-      <c r="H22" s="97"/>
-      <c r="I22" s="97"/>
-      <c r="J22" s="97"/>
-      <c r="K22" s="97"/>
-    </row>
-    <row r="23" spans="1:12" s="143" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="160" t="s">
+      <c r="B22" s="110"/>
+      <c r="C22" s="110"/>
+      <c r="D22" s="110"/>
+      <c r="E22" s="110"/>
+      <c r="F22" s="110"/>
+    </row>
+    <row r="23" spans="1:12" s="15" customFormat="1" ht="12" customHeight="1">
+      <c r="A23" s="127" t="s">
         <v>100</v>
       </c>
-      <c r="B23" s="151"/>
-      <c r="C23" s="151"/>
-      <c r="D23" s="151"/>
-      <c r="E23" s="151"/>
-      <c r="F23" s="151"/>
-      <c r="G23" s="97"/>
-      <c r="H23" s="97"/>
-      <c r="I23" s="97"/>
-      <c r="J23" s="97"/>
-      <c r="K23" s="97"/>
-    </row>
-    <row r="24" spans="1:12" s="143" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="161" t="s">
+      <c r="B23" s="118"/>
+      <c r="C23" s="118"/>
+      <c r="D23" s="118"/>
+      <c r="E23" s="118"/>
+      <c r="F23" s="118"/>
+    </row>
+    <row r="24" spans="1:12" s="15" customFormat="1" ht="24" customHeight="1">
+      <c r="A24" s="120" t="s">
         <v>184</v>
       </c>
-      <c r="B24" s="154"/>
-      <c r="C24" s="154"/>
-      <c r="D24" s="154"/>
-      <c r="E24" s="154"/>
-      <c r="F24" s="154"/>
-    </row>
-    <row r="25" spans="1:12" s="143" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="150" t="s">
+      <c r="B24" s="121"/>
+      <c r="C24" s="121"/>
+      <c r="D24" s="121"/>
+      <c r="E24" s="121"/>
+      <c r="F24" s="121"/>
+    </row>
+    <row r="25" spans="1:12" s="15" customFormat="1" ht="12.5" customHeight="1">
+      <c r="A25" s="117" t="s">
         <v>84</v>
       </c>
-      <c r="B25" s="151"/>
-      <c r="C25" s="151"/>
-      <c r="D25" s="151"/>
-      <c r="E25" s="151"/>
-      <c r="F25" s="151"/>
-    </row>
-    <row r="26" spans="1:12" s="152" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="152" t="s">
+      <c r="B25" s="118"/>
+      <c r="C25" s="118"/>
+      <c r="D25" s="118"/>
+      <c r="E25" s="118"/>
+      <c r="F25" s="118"/>
+    </row>
+    <row r="26" spans="1:12" s="119" customFormat="1" ht="24" customHeight="1">
+      <c r="A26" s="119" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="27" spans="1:12" s="143" customFormat="1" ht="109.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="153" t="s">
+    <row r="27" spans="1:12" s="15" customFormat="1" ht="110" customHeight="1">
+      <c r="A27" s="120" t="s">
         <v>214</v>
       </c>
-      <c r="B27" s="153"/>
-      <c r="C27" s="153"/>
-      <c r="D27" s="153"/>
-      <c r="E27" s="153"/>
-      <c r="F27" s="154"/>
-    </row>
-    <row r="28" spans="1:12" s="98" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="146" t="s">
+      <c r="B27" s="120"/>
+      <c r="C27" s="120"/>
+      <c r="D27" s="120"/>
+      <c r="E27" s="120"/>
+      <c r="F27" s="121"/>
+    </row>
+    <row r="28" spans="1:12" s="86" customFormat="1" ht="12" customHeight="1">
+      <c r="A28" s="111" t="s">
         <v>75</v>
       </c>
-      <c r="B28" s="143"/>
-      <c r="C28" s="143"/>
-      <c r="D28" s="143"/>
-      <c r="E28" s="143"/>
-      <c r="F28" s="143"/>
-    </row>
-    <row r="29" spans="1:12" s="96" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="102" t="s">
+      <c r="B28" s="15"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+    </row>
+    <row r="29" spans="1:12" s="85" customFormat="1" ht="12" customHeight="1">
+      <c r="A29" s="88" t="s">
         <v>189</v>
       </c>
-      <c r="B29" s="143"/>
-      <c r="C29" s="143"/>
-      <c r="D29" s="143"/>
-      <c r="E29" s="143"/>
-      <c r="F29" s="143"/>
-    </row>
-    <row r="30" spans="1:12" s="145" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="145" t="s">
+      <c r="B29" s="15"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
+    </row>
+    <row r="30" spans="1:12" s="36" customFormat="1" ht="12" customHeight="1">
+      <c r="A30" s="36" t="s">
         <v>212</v>
       </c>
-      <c r="B30" s="149"/>
-      <c r="C30" s="149"/>
-      <c r="D30" s="143"/>
-      <c r="E30" s="143"/>
-      <c r="F30" s="143"/>
-    </row>
-    <row r="31" spans="1:12" s="96" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="145" t="s">
+      <c r="B30" s="15"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
+    </row>
+    <row r="31" spans="1:12" s="85" customFormat="1" ht="12" customHeight="1">
+      <c r="A31" s="36" t="s">
         <v>211</v>
       </c>
-      <c r="B31" s="149"/>
-      <c r="C31" s="149"/>
-      <c r="D31" s="149"/>
-      <c r="E31" s="149"/>
-      <c r="F31" s="143"/>
-    </row>
-    <row r="32" spans="1:12" s="96" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="102" t="s">
+      <c r="B31" s="15"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
+    </row>
+    <row r="32" spans="1:12" s="85" customFormat="1" ht="12" customHeight="1">
+      <c r="A32" s="88" t="s">
         <v>190</v>
       </c>
-      <c r="B32" s="143"/>
-      <c r="C32" s="143"/>
-      <c r="D32" s="143"/>
-      <c r="E32" s="143"/>
-      <c r="F32" s="143"/>
-    </row>
-    <row r="33" spans="1:6" s="96" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="102" t="s">
+      <c r="B32" s="15"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="15"/>
+    </row>
+    <row r="33" spans="1:6" s="85" customFormat="1" ht="12" customHeight="1">
+      <c r="A33" s="88" t="s">
         <v>180</v>
       </c>
-      <c r="B33" s="143"/>
-      <c r="C33" s="143"/>
-      <c r="D33" s="143"/>
-      <c r="E33" s="143"/>
-      <c r="F33" s="143"/>
-    </row>
-    <row r="34" spans="1:6" s="99" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="102" t="s">
+      <c r="B33" s="15"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="15"/>
+    </row>
+    <row r="34" spans="1:6" s="87" customFormat="1" ht="12" customHeight="1">
+      <c r="A34" s="88" t="s">
         <v>191</v>
       </c>
-      <c r="B34" s="143"/>
-      <c r="C34" s="143"/>
-      <c r="D34" s="143"/>
-      <c r="E34" s="143"/>
-      <c r="F34" s="143"/>
-    </row>
-    <row r="35" spans="1:6" s="96" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="102" t="s">
+      <c r="B34" s="15"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="15"/>
+    </row>
+    <row r="35" spans="1:6" s="85" customFormat="1" ht="12" customHeight="1">
+      <c r="A35" s="88" t="s">
         <v>213</v>
       </c>
-      <c r="B35" s="143"/>
-      <c r="C35" s="143"/>
-      <c r="D35" s="143"/>
-      <c r="E35" s="143"/>
-      <c r="F35" s="143"/>
-    </row>
-    <row r="36" spans="1:6" s="96" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="102" t="s">
+      <c r="B35" s="15"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="15"/>
+    </row>
+    <row r="36" spans="1:6" s="85" customFormat="1" ht="12" customHeight="1">
+      <c r="A36" s="88" t="s">
         <v>169</v>
       </c>
-      <c r="B36" s="107"/>
-      <c r="C36" s="107"/>
-      <c r="D36" s="107"/>
-      <c r="E36" s="107"/>
-      <c r="F36" s="107"/>
-    </row>
-    <row r="37" spans="1:6" s="96" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="42" t="s">
+      <c r="B36" s="92"/>
+      <c r="C36" s="92"/>
+      <c r="D36" s="92"/>
+      <c r="E36" s="92"/>
+      <c r="F36" s="92"/>
+    </row>
+    <row r="37" spans="1:6" s="85" customFormat="1" ht="12" customHeight="1">
+      <c r="A37" s="38" t="s">
         <v>181</v>
       </c>
-      <c r="B37" s="143"/>
-      <c r="C37" s="143"/>
-      <c r="D37" s="143"/>
-      <c r="E37" s="143"/>
-      <c r="F37" s="143"/>
-    </row>
-    <row r="38" spans="1:6" s="96" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="102" t="s">
+      <c r="B37" s="15"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="15"/>
+    </row>
+    <row r="38" spans="1:6" s="85" customFormat="1" ht="12" customHeight="1">
+      <c r="A38" s="88" t="s">
         <v>192</v>
       </c>
-      <c r="B38" s="143"/>
-      <c r="C38" s="143"/>
-      <c r="D38" s="143"/>
-      <c r="E38" s="143"/>
-      <c r="F38" s="143"/>
-    </row>
-    <row r="39" spans="1:6" s="96" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="145" t="s">
+      <c r="B38" s="15"/>
+      <c r="C38" s="15"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="15"/>
+    </row>
+    <row r="39" spans="1:6" s="85" customFormat="1" ht="12" customHeight="1">
+      <c r="A39" s="36" t="s">
         <v>204</v>
       </c>
-      <c r="B39" s="149"/>
-      <c r="C39" s="149"/>
-      <c r="D39" s="149"/>
-      <c r="E39" s="149"/>
-      <c r="F39" s="143"/>
-    </row>
-    <row r="40" spans="1:6" s="96" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="102" t="s">
+      <c r="B39" s="15"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="15"/>
+    </row>
+    <row r="40" spans="1:6" s="85" customFormat="1" ht="12" customHeight="1">
+      <c r="A40" s="88" t="s">
         <v>193</v>
       </c>
-      <c r="B40" s="143"/>
-      <c r="C40" s="143"/>
-      <c r="D40" s="143"/>
-      <c r="E40" s="143"/>
-      <c r="F40" s="143"/>
-    </row>
-    <row r="41" spans="1:6" s="145" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="109" t="s">
+      <c r="B40" s="15"/>
+      <c r="C40" s="15"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="15"/>
+      <c r="F40" s="15"/>
+    </row>
+    <row r="41" spans="1:6" s="36" customFormat="1" ht="12" customHeight="1">
+      <c r="A41" s="36" t="s">
         <v>194</v>
       </c>
-      <c r="B41" s="143"/>
-      <c r="C41" s="143"/>
-      <c r="D41" s="143"/>
-      <c r="E41" s="109"/>
-      <c r="F41" s="109"/>
-    </row>
-    <row r="42" spans="1:6" s="96" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="102" t="s">
+      <c r="B41" s="15"/>
+      <c r="C41" s="15"/>
+      <c r="D41" s="15"/>
+    </row>
+    <row r="42" spans="1:6" s="85" customFormat="1" ht="12" customHeight="1">
+      <c r="A42" s="88" t="s">
         <v>195</v>
       </c>
-      <c r="B42" s="107"/>
-      <c r="C42" s="107"/>
-      <c r="D42" s="107"/>
-      <c r="E42" s="143"/>
-      <c r="F42" s="143"/>
-    </row>
-    <row r="43" spans="1:6" s="96" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="102" t="s">
+      <c r="B42" s="92"/>
+      <c r="C42" s="92"/>
+      <c r="D42" s="92"/>
+      <c r="E42" s="15"/>
+      <c r="F42" s="15"/>
+    </row>
+    <row r="43" spans="1:6" s="85" customFormat="1" ht="12" customHeight="1">
+      <c r="A43" s="88" t="s">
         <v>196</v>
       </c>
-      <c r="B43" s="143"/>
-      <c r="C43" s="143"/>
-      <c r="D43" s="143"/>
-      <c r="E43" s="143"/>
-      <c r="F43" s="143"/>
-    </row>
-    <row r="44" spans="1:6" s="96" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="102" t="s">
+      <c r="B43" s="15"/>
+      <c r="C43" s="15"/>
+      <c r="D43" s="15"/>
+      <c r="E43" s="15"/>
+      <c r="F43" s="15"/>
+    </row>
+    <row r="44" spans="1:6" s="85" customFormat="1" ht="12" customHeight="1">
+      <c r="A44" s="88" t="s">
         <v>197</v>
       </c>
-      <c r="B44" s="143"/>
-      <c r="C44" s="143"/>
-      <c r="D44" s="143"/>
-      <c r="E44" s="143"/>
-      <c r="F44" s="143"/>
-    </row>
-    <row r="45" spans="1:6" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="155" t="s">
+      <c r="B44" s="15"/>
+      <c r="C44" s="15"/>
+      <c r="D44" s="15"/>
+      <c r="E44" s="15"/>
+      <c r="F44" s="15"/>
+    </row>
+    <row r="45" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1">
+      <c r="A45" s="122" t="s">
         <v>103</v>
       </c>
-      <c r="B45" s="156"/>
-      <c r="C45" s="156"/>
-      <c r="D45" s="156"/>
-      <c r="E45" s="156"/>
-      <c r="F45" s="156"/>
-    </row>
-    <row r="49" s="15" customFormat="1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="50" s="15" customFormat="1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="51" s="15" customFormat="1" hidden="1" x14ac:dyDescent="0.25"/>
+      <c r="B45" s="123"/>
+      <c r="C45" s="123"/>
+      <c r="D45" s="123"/>
+      <c r="E45" s="123"/>
+      <c r="F45" s="123"/>
+    </row>
+    <row r="49" s="14" customFormat="1" hidden="1"/>
+    <row r="50" s="14" customFormat="1" hidden="1"/>
+    <row r="51" s="14" customFormat="1" hidden="1"/>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="A25:F25"/>
@@ -11686,742 +11524,708 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="13.8" zeroHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="14" zeroHeight="1"/>
   <cols>
-    <col min="1" max="1" width="25.59765625" style="82" customWidth="1"/>
-    <col min="2" max="3" width="20.59765625" style="82" customWidth="1"/>
-    <col min="4" max="4" width="28.59765625" style="82" customWidth="1"/>
-    <col min="5" max="6" width="20.59765625" style="82" customWidth="1"/>
-    <col min="7" max="10" width="24.59765625" style="82" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="25.59765625" style="82" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="33.3984375" style="82" hidden="1" customWidth="1"/>
-    <col min="13" max="16" width="20.59765625" style="82" hidden="1" customWidth="1"/>
-    <col min="17" max="26" width="18.09765625" style="82" hidden="1" customWidth="1"/>
-    <col min="27" max="27" width="11.8984375" style="82" hidden="1" customWidth="1"/>
-    <col min="28" max="16384" width="9" style="82" hidden="1"/>
+    <col min="1" max="1" width="25.6640625" style="73" customWidth="1"/>
+    <col min="2" max="3" width="20.6640625" style="73" customWidth="1"/>
+    <col min="4" max="4" width="28.6640625" style="73" customWidth="1"/>
+    <col min="5" max="6" width="20.6640625" style="73" customWidth="1"/>
+    <col min="7" max="10" width="24.6640625" style="73" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="25.6640625" style="73" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="33.33203125" style="73" hidden="1" customWidth="1"/>
+    <col min="13" max="16" width="20.6640625" style="73" hidden="1" customWidth="1"/>
+    <col min="17" max="26" width="18.1640625" style="73" hidden="1" customWidth="1"/>
+    <col min="27" max="27" width="11.83203125" style="73" hidden="1" customWidth="1"/>
+    <col min="28" max="16384" width="9" style="73" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="78" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="78" t="s">
+    <row r="1" spans="1:13" s="69" customFormat="1" ht="15" hidden="1" customHeight="1">
+      <c r="A1" s="69" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="81" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="51" t="s">
+    <row r="2" spans="1:13" s="72" customFormat="1" ht="24" customHeight="1">
+      <c r="A2" s="45" t="s">
         <v>102</v>
       </c>
-      <c r="B2" s="80"/>
-    </row>
-    <row r="3" spans="1:14" s="15" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="77" t="s">
+      <c r="B2" s="71"/>
+    </row>
+    <row r="3" spans="1:13" s="14" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A3" s="68" t="s">
         <v>199</v>
       </c>
-      <c r="B3" s="77"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="86"/>
-      <c r="H3" s="86"/>
-      <c r="I3" s="86"/>
-      <c r="J3" s="86"/>
-      <c r="K3" s="86"/>
-      <c r="L3" s="87"/>
-      <c r="M3" s="87"/>
-      <c r="N3" s="88"/>
-    </row>
-    <row r="4" spans="1:14" s="118" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="60" t="s">
+      <c r="B3" s="68"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="L3" s="77"/>
+      <c r="M3" s="77"/>
+    </row>
+    <row r="4" spans="1:13" s="100" customFormat="1" ht="45" customHeight="1">
+      <c r="A4" s="54" t="s">
         <v>54</v>
       </c>
-      <c r="B4" s="61" t="s">
+      <c r="B4" s="55" t="s">
         <v>80</v>
       </c>
-      <c r="C4" s="61" t="s">
+      <c r="C4" s="55" t="s">
         <v>81</v>
       </c>
-      <c r="D4" s="28" t="s">
+      <c r="D4" s="26" t="s">
         <v>165</v>
       </c>
-      <c r="E4" s="61" t="s">
+      <c r="E4" s="55" t="s">
         <v>166</v>
       </c>
-      <c r="F4" s="73" t="s">
+      <c r="F4" s="65" t="s">
         <v>131</v>
       </c>
-      <c r="G4" s="115"/>
-      <c r="H4" s="115"/>
-      <c r="I4" s="115"/>
-      <c r="J4" s="115"/>
-      <c r="K4" s="115"/>
-      <c r="L4" s="115"/>
-      <c r="M4" s="116"/>
-      <c r="N4" s="117"/>
-    </row>
-    <row r="5" spans="1:14" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="22" t="s">
+      <c r="G4" s="98"/>
+      <c r="H4" s="98"/>
+      <c r="I4" s="98"/>
+      <c r="J4" s="98"/>
+      <c r="K4" s="98"/>
+      <c r="L4" s="98"/>
+      <c r="M4" s="99"/>
+    </row>
+    <row r="5" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1">
+      <c r="A5" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="B5" s="76">
+      <c r="B5" s="67">
         <v>62</v>
       </c>
-      <c r="C5" s="76">
+      <c r="C5" s="67">
         <v>0</v>
       </c>
-      <c r="D5" s="76" t="s">
+      <c r="D5" s="67" t="s">
         <v>85</v>
       </c>
-      <c r="E5" s="119">
+      <c r="E5" s="101">
         <v>1381</v>
       </c>
-      <c r="F5" s="89">
+      <c r="F5" s="78">
         <f>B5/E5</f>
         <v>4.4895003620564811E-2</v>
       </c>
-      <c r="G5" s="90"/>
-      <c r="H5" s="90"/>
-      <c r="I5" s="90"/>
-      <c r="J5" s="90"/>
-      <c r="K5" s="91"/>
-      <c r="L5" s="92"/>
-    </row>
-    <row r="6" spans="1:14" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="22" t="s">
+      <c r="G5" s="79"/>
+      <c r="H5" s="79"/>
+      <c r="I5" s="79"/>
+      <c r="J5" s="79"/>
+      <c r="K5" s="80"/>
+      <c r="L5" s="81"/>
+    </row>
+    <row r="6" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1">
+      <c r="A6" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="B6" s="76">
+      <c r="B6" s="67">
         <v>2</v>
       </c>
-      <c r="C6" s="76">
+      <c r="C6" s="67">
         <v>0</v>
       </c>
-      <c r="D6" s="76" t="s">
+      <c r="D6" s="67" t="s">
         <v>85</v>
       </c>
-      <c r="E6" s="76">
+      <c r="E6" s="67">
         <v>104</v>
       </c>
-      <c r="F6" s="89">
+      <c r="F6" s="78">
         <f>B6/E6</f>
         <v>1.9230769230769232E-2</v>
       </c>
-      <c r="G6" s="90"/>
-      <c r="H6" s="90"/>
-      <c r="I6" s="90"/>
-      <c r="J6" s="90"/>
-      <c r="K6" s="91"/>
-      <c r="L6" s="92"/>
-    </row>
-    <row r="7" spans="1:14" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="22" t="s">
+      <c r="G6" s="79"/>
+      <c r="H6" s="79"/>
+      <c r="I6" s="79"/>
+      <c r="J6" s="79"/>
+      <c r="K6" s="80"/>
+      <c r="L6" s="81"/>
+    </row>
+    <row r="7" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1">
+      <c r="A7" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="B7" s="76">
+      <c r="B7" s="67">
         <v>287</v>
       </c>
-      <c r="C7" s="76">
+      <c r="C7" s="67">
         <v>0</v>
       </c>
-      <c r="D7" s="76">
+      <c r="D7" s="67">
         <v>0</v>
       </c>
-      <c r="E7" s="119">
+      <c r="E7" s="101">
         <v>5751</v>
       </c>
-      <c r="F7" s="89">
+      <c r="F7" s="78">
         <f>B7/E7</f>
         <v>4.9904364458355069E-2</v>
       </c>
-      <c r="G7" s="90"/>
-      <c r="H7" s="90"/>
-      <c r="I7" s="90"/>
-      <c r="J7" s="93"/>
-      <c r="K7" s="91"/>
-      <c r="L7" s="92"/>
-    </row>
-    <row r="8" spans="1:14" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="22" t="s">
+      <c r="G7" s="79"/>
+      <c r="H7" s="79"/>
+      <c r="I7" s="79"/>
+      <c r="J7" s="82"/>
+      <c r="K7" s="80"/>
+      <c r="L7" s="81"/>
+    </row>
+    <row r="8" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1">
+      <c r="A8" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="B8" s="76">
+      <c r="B8" s="67">
         <v>227</v>
       </c>
-      <c r="C8" s="76">
+      <c r="C8" s="67">
         <v>0</v>
       </c>
-      <c r="D8" s="76" t="s">
+      <c r="D8" s="67" t="s">
         <v>85</v>
       </c>
-      <c r="E8" s="119">
+      <c r="E8" s="101">
         <v>2302</v>
       </c>
-      <c r="F8" s="89">
+      <c r="F8" s="78">
         <f t="shared" ref="F8:F13" si="0">B8/E8</f>
         <v>9.8609904430929624E-2</v>
       </c>
-      <c r="G8" s="90"/>
-      <c r="H8" s="90"/>
-      <c r="I8" s="90"/>
-      <c r="J8" s="90"/>
-      <c r="K8" s="91"/>
-      <c r="L8" s="92"/>
-    </row>
-    <row r="9" spans="1:14" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="22" t="s">
+      <c r="G8" s="79"/>
+      <c r="H8" s="79"/>
+      <c r="I8" s="79"/>
+      <c r="J8" s="79"/>
+      <c r="K8" s="80"/>
+      <c r="L8" s="81"/>
+    </row>
+    <row r="9" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1">
+      <c r="A9" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="B9" s="120">
+      <c r="B9" s="102">
         <v>45320</v>
       </c>
-      <c r="C9" s="76">
+      <c r="C9" s="67">
         <v>13</v>
       </c>
-      <c r="D9" s="76">
+      <c r="D9" s="67">
         <v>41</v>
       </c>
-      <c r="E9" s="124">
+      <c r="E9" s="105">
         <v>369728</v>
       </c>
-      <c r="F9" s="89">
+      <c r="F9" s="78">
         <f t="shared" si="0"/>
         <v>0.12257659684957591</v>
       </c>
-      <c r="G9" s="93"/>
-      <c r="H9" s="90"/>
-      <c r="I9" s="90"/>
-      <c r="J9" s="93"/>
-      <c r="K9" s="91"/>
-      <c r="L9" s="92"/>
-    </row>
-    <row r="10" spans="1:14" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="22" t="s">
+      <c r="G9" s="82"/>
+      <c r="H9" s="79"/>
+      <c r="I9" s="79"/>
+      <c r="J9" s="82"/>
+      <c r="K9" s="80"/>
+      <c r="L9" s="81"/>
+    </row>
+    <row r="10" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1">
+      <c r="A10" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="B10" s="119">
+      <c r="B10" s="101">
         <v>23557</v>
       </c>
-      <c r="C10" s="76">
+      <c r="C10" s="67">
         <v>17</v>
       </c>
-      <c r="D10" s="76">
+      <c r="D10" s="67">
         <v>14</v>
       </c>
-      <c r="E10" s="124">
+      <c r="E10" s="105">
         <v>540426</v>
       </c>
-      <c r="F10" s="89">
+      <c r="F10" s="78">
         <f>B10/E10</f>
         <v>4.3589686654602111E-2</v>
       </c>
-      <c r="G10" s="93"/>
-      <c r="H10" s="90"/>
-      <c r="I10" s="90"/>
-      <c r="J10" s="93"/>
-      <c r="K10" s="91"/>
-      <c r="L10" s="92"/>
-    </row>
-    <row r="11" spans="1:14" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="22" t="s">
+      <c r="G10" s="82"/>
+      <c r="H10" s="79"/>
+      <c r="I10" s="79"/>
+      <c r="J10" s="82"/>
+      <c r="K10" s="80"/>
+      <c r="L10" s="81"/>
+    </row>
+    <row r="11" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1">
+      <c r="A11" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="B11" s="119">
+      <c r="B11" s="101">
         <v>2491</v>
       </c>
-      <c r="C11" s="76">
+      <c r="C11" s="67">
         <v>4</v>
       </c>
-      <c r="D11" s="76">
+      <c r="D11" s="67">
         <v>0</v>
       </c>
-      <c r="E11" s="119">
+      <c r="E11" s="101">
         <v>54163</v>
       </c>
-      <c r="F11" s="89">
+      <c r="F11" s="78">
         <f t="shared" si="0"/>
         <v>4.5990805531451358E-2</v>
       </c>
-      <c r="G11" s="90"/>
-      <c r="H11" s="90"/>
-      <c r="I11" s="90"/>
-      <c r="J11" s="93"/>
-      <c r="K11" s="91"/>
-      <c r="L11" s="92"/>
-    </row>
-    <row r="12" spans="1:14" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="22" t="s">
+      <c r="G11" s="79"/>
+      <c r="H11" s="79"/>
+      <c r="I11" s="79"/>
+      <c r="J11" s="82"/>
+      <c r="K11" s="80"/>
+      <c r="L11" s="81"/>
+    </row>
+    <row r="12" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1">
+      <c r="A12" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="B12" s="119">
+      <c r="B12" s="101">
         <v>2455</v>
       </c>
-      <c r="C12" s="76">
+      <c r="C12" s="67">
         <v>1</v>
       </c>
-      <c r="D12" s="76" t="s">
+      <c r="D12" s="67" t="s">
         <v>85</v>
       </c>
-      <c r="E12" s="119">
+      <c r="E12" s="101">
         <v>48042</v>
       </c>
-      <c r="F12" s="89">
+      <c r="F12" s="78">
         <f t="shared" si="0"/>
         <v>5.1101119853461552E-2</v>
       </c>
-      <c r="G12" s="90"/>
-      <c r="H12" s="90"/>
-      <c r="I12" s="90"/>
-      <c r="J12" s="93"/>
-      <c r="K12" s="91"/>
-      <c r="L12" s="92"/>
-    </row>
-    <row r="13" spans="1:14" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="22" t="s">
+      <c r="G12" s="79"/>
+      <c r="H12" s="79"/>
+      <c r="I12" s="79"/>
+      <c r="J12" s="82"/>
+      <c r="K12" s="80"/>
+      <c r="L12" s="81"/>
+    </row>
+    <row r="13" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1">
+      <c r="A13" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="B13" s="119">
+      <c r="B13" s="101">
         <v>12329</v>
       </c>
-      <c r="C13" s="76">
+      <c r="C13" s="67">
         <v>8</v>
       </c>
-      <c r="D13" s="76" t="s">
+      <c r="D13" s="67" t="s">
         <v>85</v>
       </c>
-      <c r="E13" s="119">
+      <c r="E13" s="101">
         <v>230705</v>
       </c>
-      <c r="F13" s="89">
+      <c r="F13" s="78">
         <f t="shared" si="0"/>
         <v>5.3440540950564573E-2</v>
       </c>
-      <c r="G13" s="93"/>
-      <c r="H13" s="90"/>
-      <c r="I13" s="90"/>
-      <c r="J13" s="93"/>
-      <c r="K13" s="91"/>
-      <c r="L13" s="92"/>
-    </row>
-    <row r="14" spans="1:14" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="22" t="s">
+      <c r="G13" s="82"/>
+      <c r="H13" s="79"/>
+      <c r="I13" s="79"/>
+      <c r="J13" s="82"/>
+      <c r="K13" s="80"/>
+      <c r="L13" s="81"/>
+    </row>
+    <row r="14" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1">
+      <c r="A14" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="B14" s="119">
+      <c r="B14" s="101">
         <v>8143</v>
       </c>
-      <c r="C14" s="121" t="s">
+      <c r="C14" s="67" t="s">
         <v>85</v>
       </c>
-      <c r="D14" s="76" t="s">
+      <c r="D14" s="67" t="s">
         <v>85</v>
       </c>
-      <c r="E14" s="122">
+      <c r="E14" s="103">
         <v>146902</v>
       </c>
-      <c r="F14" s="89">
+      <c r="F14" s="78">
         <f>B14/E14</f>
         <v>5.5431512164572302E-2</v>
       </c>
-      <c r="G14" s="93"/>
-      <c r="H14" s="90"/>
-      <c r="I14" s="90"/>
-      <c r="J14" s="93"/>
-      <c r="K14" s="91"/>
-      <c r="L14" s="92"/>
-    </row>
-    <row r="15" spans="1:14" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="22" t="s">
+      <c r="G14" s="82"/>
+      <c r="H14" s="79"/>
+      <c r="I14" s="79"/>
+      <c r="J14" s="82"/>
+      <c r="K14" s="80"/>
+      <c r="L14" s="81"/>
+    </row>
+    <row r="15" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1">
+      <c r="A15" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="B15" s="121" t="s">
+      <c r="B15" s="67" t="s">
         <v>85</v>
       </c>
-      <c r="C15" s="121" t="s">
+      <c r="C15" s="67" t="s">
         <v>85</v>
       </c>
-      <c r="D15" s="76" t="s">
+      <c r="D15" s="67" t="s">
         <v>85</v>
       </c>
-      <c r="E15" s="121">
+      <c r="E15" s="67">
         <v>107</v>
       </c>
-      <c r="F15" s="94" t="s">
+      <c r="F15" s="83" t="s">
         <v>85</v>
       </c>
-      <c r="G15" s="90"/>
-      <c r="H15" s="90"/>
-      <c r="I15" s="90"/>
-      <c r="J15" s="90"/>
-      <c r="K15" s="91"/>
-      <c r="L15" s="91"/>
-    </row>
-    <row r="16" spans="1:14" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="22" t="s">
+      <c r="G15" s="79"/>
+      <c r="H15" s="79"/>
+      <c r="I15" s="79"/>
+      <c r="J15" s="79"/>
+      <c r="K15" s="80"/>
+      <c r="L15" s="80"/>
+    </row>
+    <row r="16" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1">
+      <c r="A16" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="B16" s="121" t="s">
+      <c r="B16" s="67" t="s">
         <v>85</v>
       </c>
-      <c r="C16" s="121" t="s">
+      <c r="C16" s="67" t="s">
         <v>85</v>
       </c>
-      <c r="D16" s="76" t="s">
+      <c r="D16" s="67" t="s">
         <v>85</v>
       </c>
-      <c r="E16" s="121">
+      <c r="E16" s="67">
         <v>128</v>
       </c>
-      <c r="F16" s="94" t="s">
+      <c r="F16" s="83" t="s">
         <v>85</v>
       </c>
-      <c r="G16" s="90"/>
-      <c r="H16" s="90"/>
-      <c r="I16" s="90"/>
-      <c r="J16" s="90"/>
-      <c r="K16" s="91"/>
-      <c r="L16" s="91"/>
-    </row>
-    <row r="17" spans="1:12" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="22" t="s">
+      <c r="G16" s="79"/>
+      <c r="H16" s="79"/>
+      <c r="I16" s="79"/>
+      <c r="J16" s="79"/>
+      <c r="K16" s="80"/>
+      <c r="L16" s="80"/>
+    </row>
+    <row r="17" spans="1:12" s="15" customFormat="1" ht="15" customHeight="1">
+      <c r="A17" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="B17" s="121" t="s">
+      <c r="B17" s="67" t="s">
         <v>164</v>
       </c>
-      <c r="C17" s="121" t="s">
+      <c r="C17" s="67" t="s">
         <v>164</v>
       </c>
-      <c r="D17" s="76" t="s">
+      <c r="D17" s="67" t="s">
         <v>85</v>
       </c>
-      <c r="E17" s="121">
+      <c r="E17" s="67">
         <v>657</v>
       </c>
-      <c r="F17" s="94" t="s">
+      <c r="F17" s="83" t="s">
         <v>85</v>
       </c>
-      <c r="G17" s="90"/>
-      <c r="H17" s="90"/>
-      <c r="I17" s="90"/>
-      <c r="J17" s="90"/>
-      <c r="K17" s="91"/>
-      <c r="L17" s="91"/>
-    </row>
-    <row r="18" spans="1:12" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="55" t="s">
+      <c r="G17" s="79"/>
+      <c r="H17" s="79"/>
+      <c r="I17" s="79"/>
+      <c r="J17" s="79"/>
+      <c r="K17" s="80"/>
+      <c r="L17" s="80"/>
+    </row>
+    <row r="18" spans="1:12" s="15" customFormat="1" ht="15" customHeight="1">
+      <c r="A18" s="49" t="s">
         <v>170</v>
       </c>
-      <c r="B18" s="125">
+      <c r="B18" s="106">
         <v>94873</v>
       </c>
-      <c r="C18" s="125">
+      <c r="C18" s="106">
         <v>43</v>
       </c>
-      <c r="D18" s="95">
+      <c r="D18" s="84">
         <v>55</v>
       </c>
-      <c r="E18" s="126">
+      <c r="E18" s="107">
         <v>1400409</v>
       </c>
-      <c r="F18" s="123">
+      <c r="F18" s="104">
         <v>6.7789816057968577E-2</v>
       </c>
-      <c r="G18" s="93"/>
-      <c r="H18" s="90"/>
-      <c r="I18" s="90"/>
-      <c r="J18" s="93"/>
-      <c r="K18" s="91"/>
-      <c r="L18" s="92"/>
-    </row>
-    <row r="19" spans="1:12" s="15" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="157" t="s">
+      <c r="G18" s="82"/>
+      <c r="H18" s="79"/>
+      <c r="I18" s="79"/>
+      <c r="J18" s="82"/>
+      <c r="K18" s="80"/>
+      <c r="L18" s="81"/>
+    </row>
+    <row r="19" spans="1:12" s="14" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A19" s="124" t="s">
         <v>74</v>
       </c>
-      <c r="B19" s="162"/>
-      <c r="C19" s="162"/>
-      <c r="D19" s="162"/>
-      <c r="E19" s="162"/>
-      <c r="F19" s="162"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="86"/>
-      <c r="I19" s="86"/>
-      <c r="J19" s="86"/>
-      <c r="K19" s="86"/>
-      <c r="L19" s="86"/>
-    </row>
-    <row r="20" spans="1:12" s="16" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="159" t="s">
+      <c r="B19" s="128"/>
+      <c r="C19" s="128"/>
+      <c r="D19" s="128"/>
+      <c r="E19" s="128"/>
+      <c r="F19" s="128"/>
+      <c r="G19" s="25"/>
+    </row>
+    <row r="20" spans="1:12" s="15" customFormat="1" ht="24" customHeight="1">
+      <c r="A20" s="126" t="s">
         <v>167</v>
       </c>
-      <c r="B20" s="159"/>
-      <c r="C20" s="159"/>
-      <c r="D20" s="159"/>
-      <c r="E20" s="159"/>
-      <c r="F20" s="154"/>
-      <c r="G20" s="97"/>
-      <c r="H20" s="97"/>
-      <c r="I20" s="97"/>
-      <c r="J20" s="97"/>
-      <c r="K20" s="97"/>
-    </row>
-    <row r="21" spans="1:12" s="16" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="159" t="s">
+      <c r="B20" s="126"/>
+      <c r="C20" s="126"/>
+      <c r="D20" s="126"/>
+      <c r="E20" s="126"/>
+      <c r="F20" s="121"/>
+    </row>
+    <row r="21" spans="1:12" s="15" customFormat="1" ht="24" customHeight="1">
+      <c r="A21" s="126" t="s">
         <v>173</v>
       </c>
-      <c r="B21" s="159"/>
-      <c r="C21" s="159"/>
-      <c r="D21" s="159"/>
-      <c r="E21" s="159"/>
-      <c r="F21" s="159"/>
-      <c r="G21" s="97"/>
-      <c r="H21" s="97"/>
-      <c r="I21" s="97"/>
-      <c r="J21" s="97"/>
-      <c r="K21" s="97"/>
-    </row>
-    <row r="22" spans="1:12" s="16" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="131" t="s">
+      <c r="B21" s="126"/>
+      <c r="C21" s="126"/>
+      <c r="D21" s="126"/>
+      <c r="E21" s="126"/>
+      <c r="F21" s="126"/>
+    </row>
+    <row r="22" spans="1:12" s="15" customFormat="1" ht="12" customHeight="1">
+      <c r="A22" s="110" t="s">
         <v>171</v>
       </c>
-      <c r="B22" s="131"/>
-      <c r="C22" s="131"/>
-      <c r="D22" s="131"/>
-      <c r="E22" s="131"/>
-      <c r="F22" s="131"/>
-      <c r="G22" s="97"/>
-      <c r="H22" s="97"/>
-      <c r="I22" s="97"/>
-      <c r="J22" s="97"/>
-      <c r="K22" s="97"/>
-    </row>
-    <row r="23" spans="1:12" s="16" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="160" t="s">
+      <c r="B22" s="110"/>
+      <c r="C22" s="110"/>
+      <c r="D22" s="110"/>
+      <c r="E22" s="110"/>
+      <c r="F22" s="110"/>
+    </row>
+    <row r="23" spans="1:12" s="15" customFormat="1" ht="12" customHeight="1">
+      <c r="A23" s="127" t="s">
         <v>100</v>
       </c>
-      <c r="B23" s="163"/>
-      <c r="C23" s="163"/>
-      <c r="D23" s="163"/>
-      <c r="E23" s="163"/>
-      <c r="F23" s="163"/>
-      <c r="G23" s="97"/>
-      <c r="H23" s="97"/>
-      <c r="I23" s="97"/>
-      <c r="J23" s="97"/>
-      <c r="K23" s="97"/>
-    </row>
-    <row r="24" spans="1:12" s="16" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="161" t="s">
+      <c r="B23" s="129"/>
+      <c r="C23" s="129"/>
+      <c r="D23" s="129"/>
+      <c r="E23" s="129"/>
+      <c r="F23" s="129"/>
+    </row>
+    <row r="24" spans="1:12" s="15" customFormat="1" ht="24" customHeight="1">
+      <c r="A24" s="120" t="s">
         <v>132</v>
       </c>
-      <c r="B24" s="154"/>
-      <c r="C24" s="154"/>
-      <c r="D24" s="154"/>
-      <c r="E24" s="154"/>
-      <c r="F24" s="154"/>
-    </row>
-    <row r="25" spans="1:12" s="16" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="150" t="s">
+      <c r="B24" s="121"/>
+      <c r="C24" s="121"/>
+      <c r="D24" s="121"/>
+      <c r="E24" s="121"/>
+      <c r="F24" s="121"/>
+    </row>
+    <row r="25" spans="1:12" s="15" customFormat="1" ht="12" customHeight="1">
+      <c r="A25" s="117" t="s">
         <v>84</v>
       </c>
-      <c r="B25" s="163"/>
-      <c r="C25" s="163"/>
-      <c r="D25" s="163"/>
-      <c r="E25" s="163"/>
-      <c r="F25" s="163"/>
-    </row>
-    <row r="26" spans="1:12" s="165" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="152" t="s">
+      <c r="B25" s="129"/>
+      <c r="C25" s="129"/>
+      <c r="D25" s="129"/>
+      <c r="E25" s="129"/>
+      <c r="F25" s="129"/>
+    </row>
+    <row r="26" spans="1:12" s="131" customFormat="1" ht="24" customHeight="1">
+      <c r="A26" s="119" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="27" spans="1:12" s="16" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="153" t="s">
+    <row r="27" spans="1:12" s="15" customFormat="1" ht="84" customHeight="1">
+      <c r="A27" s="120" t="s">
         <v>174</v>
       </c>
-      <c r="B27" s="153"/>
-      <c r="C27" s="153"/>
-      <c r="D27" s="153"/>
-      <c r="E27" s="153"/>
-      <c r="F27" s="154"/>
-    </row>
-    <row r="28" spans="1:12" s="98" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="134" t="s">
+      <c r="B27" s="120"/>
+      <c r="C27" s="120"/>
+      <c r="D27" s="120"/>
+      <c r="E27" s="120"/>
+      <c r="F27" s="121"/>
+    </row>
+    <row r="28" spans="1:12" s="86" customFormat="1" ht="12" customHeight="1">
+      <c r="A28" s="111" t="s">
         <v>75</v>
       </c>
-      <c r="B28" s="130"/>
-      <c r="C28" s="130"/>
-      <c r="D28" s="130"/>
-      <c r="E28" s="130"/>
-      <c r="F28" s="130"/>
-    </row>
-    <row r="29" spans="1:12" s="96" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="102" t="s">
+      <c r="B28" s="16"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
+    </row>
+    <row r="29" spans="1:12" s="85" customFormat="1" ht="12" customHeight="1">
+      <c r="A29" s="88" t="s">
         <v>151</v>
       </c>
-      <c r="B29" s="130"/>
-      <c r="C29" s="130"/>
-      <c r="D29" s="130"/>
-      <c r="E29" s="130"/>
-      <c r="F29" s="130"/>
-    </row>
-    <row r="30" spans="1:12" s="133" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="103" t="s">
+      <c r="B29" s="16"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+    </row>
+    <row r="30" spans="1:12" s="36" customFormat="1" ht="12" customHeight="1">
+      <c r="A30" s="89" t="s">
         <v>152</v>
       </c>
-      <c r="B30" s="130"/>
-      <c r="C30" s="130"/>
-      <c r="D30" s="130"/>
-      <c r="E30" s="130"/>
-      <c r="F30" s="130"/>
-    </row>
-    <row r="31" spans="1:12" s="96" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="103" t="s">
+      <c r="B30" s="16"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="16"/>
+    </row>
+    <row r="31" spans="1:12" s="85" customFormat="1" ht="12" customHeight="1">
+      <c r="A31" s="89" t="s">
         <v>153</v>
       </c>
-      <c r="B31" s="130"/>
-      <c r="C31" s="130"/>
-      <c r="D31" s="130"/>
-      <c r="E31" s="130"/>
-      <c r="F31" s="130"/>
-    </row>
-    <row r="32" spans="1:12" s="96" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="102" t="s">
+      <c r="B31" s="16"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
+    </row>
+    <row r="32" spans="1:12" s="85" customFormat="1" ht="12" customHeight="1">
+      <c r="A32" s="88" t="s">
         <v>154</v>
       </c>
-      <c r="B32" s="130"/>
-      <c r="C32" s="130"/>
-      <c r="D32" s="130"/>
-      <c r="E32" s="130"/>
-      <c r="F32" s="130"/>
-    </row>
-    <row r="33" spans="1:6" s="96" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="102" t="s">
+      <c r="B32" s="16"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="16"/>
+    </row>
+    <row r="33" spans="1:6" s="85" customFormat="1" ht="12" customHeight="1">
+      <c r="A33" s="88" t="s">
         <v>155</v>
       </c>
-      <c r="B33" s="130"/>
-      <c r="C33" s="130"/>
-      <c r="D33" s="130"/>
-      <c r="E33" s="130"/>
-      <c r="F33" s="130"/>
-    </row>
-    <row r="34" spans="1:6" s="99" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="102" t="s">
+      <c r="B33" s="16"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="16"/>
+    </row>
+    <row r="34" spans="1:6" s="87" customFormat="1" ht="12" customHeight="1">
+      <c r="A34" s="88" t="s">
         <v>156</v>
       </c>
-      <c r="B34" s="130"/>
-      <c r="C34" s="130"/>
-      <c r="D34" s="130"/>
-      <c r="E34" s="130"/>
-      <c r="F34" s="130"/>
-    </row>
-    <row r="35" spans="1:6" s="96" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="102" t="s">
+      <c r="B34" s="16"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="16"/>
+    </row>
+    <row r="35" spans="1:6" s="85" customFormat="1" ht="12" customHeight="1">
+      <c r="A35" s="88" t="s">
         <v>157</v>
       </c>
-      <c r="B35" s="130"/>
-      <c r="C35" s="130"/>
-      <c r="D35" s="130"/>
-      <c r="E35" s="130"/>
-      <c r="F35" s="130"/>
-    </row>
-    <row r="36" spans="1:6" s="96" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="102" t="s">
+      <c r="B35" s="16"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="16"/>
+    </row>
+    <row r="36" spans="1:6" s="85" customFormat="1" ht="12" customHeight="1">
+      <c r="A36" s="88" t="s">
         <v>169</v>
       </c>
-      <c r="B36" s="107"/>
-      <c r="C36" s="107"/>
-      <c r="D36" s="107"/>
-      <c r="E36" s="107"/>
-      <c r="F36" s="107"/>
-    </row>
-    <row r="37" spans="1:6" s="96" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="102" t="s">
+      <c r="B36" s="92"/>
+      <c r="C36" s="92"/>
+      <c r="D36" s="92"/>
+      <c r="E36" s="92"/>
+      <c r="F36" s="92"/>
+    </row>
+    <row r="37" spans="1:6" s="85" customFormat="1" ht="12" customHeight="1">
+      <c r="A37" s="88" t="s">
         <v>158</v>
       </c>
-      <c r="B37" s="130"/>
-      <c r="C37" s="130"/>
-      <c r="D37" s="130"/>
-      <c r="E37" s="130"/>
-      <c r="F37" s="130"/>
-    </row>
-    <row r="38" spans="1:6" s="96" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="102" t="s">
+      <c r="B37" s="16"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="16"/>
+    </row>
+    <row r="38" spans="1:6" s="85" customFormat="1" ht="12" customHeight="1">
+      <c r="A38" s="88" t="s">
         <v>168</v>
       </c>
-      <c r="B38" s="130"/>
-      <c r="C38" s="130"/>
-      <c r="D38" s="130"/>
-      <c r="E38" s="130"/>
-      <c r="F38" s="130"/>
-    </row>
-    <row r="39" spans="1:6" s="96" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="102" t="s">
+      <c r="B38" s="16"/>
+      <c r="C38" s="16"/>
+      <c r="D38" s="16"/>
+      <c r="E38" s="16"/>
+      <c r="F38" s="16"/>
+    </row>
+    <row r="39" spans="1:6" s="85" customFormat="1" ht="12" customHeight="1">
+      <c r="A39" s="88" t="s">
         <v>159</v>
       </c>
-      <c r="B39" s="130"/>
-      <c r="C39" s="130"/>
-      <c r="D39" s="130"/>
-      <c r="E39" s="130"/>
-      <c r="F39" s="130"/>
-    </row>
-    <row r="40" spans="1:6" s="96" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="102" t="s">
+      <c r="B39" s="16"/>
+      <c r="C39" s="16"/>
+      <c r="D39" s="16"/>
+      <c r="E39" s="16"/>
+      <c r="F39" s="16"/>
+    </row>
+    <row r="40" spans="1:6" s="85" customFormat="1" ht="12" customHeight="1">
+      <c r="A40" s="88" t="s">
         <v>160</v>
       </c>
-      <c r="B40" s="130"/>
-      <c r="C40" s="130"/>
-      <c r="D40" s="130"/>
-      <c r="E40" s="130"/>
-      <c r="F40" s="130"/>
-    </row>
-    <row r="41" spans="1:6" s="133" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="103" t="s">
+      <c r="B40" s="16"/>
+      <c r="C40" s="16"/>
+      <c r="D40" s="16"/>
+      <c r="E40" s="16"/>
+      <c r="F40" s="16"/>
+    </row>
+    <row r="41" spans="1:6" s="36" customFormat="1" ht="12" customHeight="1">
+      <c r="A41" s="89" t="s">
         <v>172</v>
       </c>
-      <c r="B41" s="107"/>
-      <c r="C41" s="107"/>
-      <c r="D41" s="107"/>
-      <c r="E41" s="109"/>
-      <c r="F41" s="109"/>
-    </row>
-    <row r="42" spans="1:6" s="96" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="102" t="s">
+      <c r="B41" s="92"/>
+      <c r="C41" s="92"/>
+      <c r="D41" s="92"/>
+    </row>
+    <row r="42" spans="1:6" s="85" customFormat="1" ht="12" customHeight="1">
+      <c r="A42" s="88" t="s">
         <v>161</v>
       </c>
-      <c r="B42" s="107"/>
-      <c r="C42" s="107"/>
-      <c r="D42" s="107"/>
-      <c r="E42" s="130"/>
-      <c r="F42" s="130"/>
-    </row>
-    <row r="43" spans="1:6" s="96" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="102" t="s">
+      <c r="B42" s="92"/>
+      <c r="C42" s="92"/>
+      <c r="D42" s="92"/>
+      <c r="E42" s="16"/>
+      <c r="F42" s="16"/>
+    </row>
+    <row r="43" spans="1:6" s="85" customFormat="1" ht="12" customHeight="1">
+      <c r="A43" s="88" t="s">
         <v>162</v>
       </c>
-      <c r="B43" s="130"/>
-      <c r="C43" s="130"/>
-      <c r="D43" s="130"/>
-      <c r="E43" s="130"/>
-      <c r="F43" s="130"/>
-    </row>
-    <row r="44" spans="1:6" s="96" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="102" t="s">
+      <c r="B43" s="16"/>
+      <c r="C43" s="16"/>
+      <c r="D43" s="16"/>
+      <c r="E43" s="16"/>
+      <c r="F43" s="16"/>
+    </row>
+    <row r="44" spans="1:6" s="85" customFormat="1" ht="12" customHeight="1">
+      <c r="A44" s="88" t="s">
         <v>163</v>
       </c>
-      <c r="B44" s="130"/>
-      <c r="C44" s="130"/>
-      <c r="D44" s="130"/>
-      <c r="E44" s="130"/>
-      <c r="F44" s="130"/>
-    </row>
-    <row r="45" spans="1:6" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="155" t="s">
+      <c r="B44" s="16"/>
+      <c r="C44" s="16"/>
+      <c r="D44" s="16"/>
+      <c r="E44" s="16"/>
+      <c r="F44" s="16"/>
+    </row>
+    <row r="45" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1">
+      <c r="A45" s="122" t="s">
         <v>103</v>
       </c>
-      <c r="B45" s="164"/>
-      <c r="C45" s="164"/>
-      <c r="D45" s="164"/>
-      <c r="E45" s="164"/>
-      <c r="F45" s="164"/>
+      <c r="B45" s="130"/>
+      <c r="C45" s="130"/>
+      <c r="D45" s="130"/>
+      <c r="E45" s="130"/>
+      <c r="F45" s="130"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -12507,728 +12311,700 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="13.8" zeroHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="14" zeroHeight="1"/>
   <cols>
-    <col min="1" max="1" width="25.59765625" customWidth="1"/>
-    <col min="2" max="3" width="20.59765625" customWidth="1"/>
-    <col min="4" max="4" width="28.59765625" customWidth="1"/>
-    <col min="5" max="6" width="20.59765625" customWidth="1"/>
-    <col min="7" max="10" width="24.59765625" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="25.59765625" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="33.3984375" hidden="1" customWidth="1"/>
-    <col min="13" max="16" width="20.59765625" hidden="1" customWidth="1"/>
-    <col min="17" max="26" width="18.09765625" hidden="1" customWidth="1"/>
-    <col min="27" max="27" width="11.8984375" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="25.6640625" customWidth="1"/>
+    <col min="2" max="3" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="28.6640625" customWidth="1"/>
+    <col min="5" max="6" width="20.6640625" customWidth="1"/>
+    <col min="7" max="10" width="24.6640625" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="25.6640625" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="33.33203125" hidden="1" customWidth="1"/>
+    <col min="13" max="16" width="20.6640625" hidden="1" customWidth="1"/>
+    <col min="17" max="26" width="18.1640625" hidden="1" customWidth="1"/>
+    <col min="27" max="27" width="11.83203125" hidden="1" customWidth="1"/>
     <col min="28" max="16384" width="9" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="78" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="78" t="s">
+    <row r="1" spans="1:13" s="69" customFormat="1" ht="15" hidden="1" customHeight="1">
+      <c r="A1" s="69" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="81" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="51" t="s">
+    <row r="2" spans="1:13" s="72" customFormat="1" ht="24" customHeight="1">
+      <c r="A2" s="45" t="s">
         <v>102</v>
       </c>
-      <c r="B2" s="80"/>
-    </row>
-    <row r="3" spans="1:14" s="15" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="77" t="s">
+      <c r="B2" s="71"/>
+    </row>
+    <row r="3" spans="1:13" s="14" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A3" s="68" t="s">
         <v>200</v>
       </c>
-      <c r="B3" s="77"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="86"/>
-      <c r="H3" s="86"/>
-      <c r="I3" s="86"/>
-      <c r="J3" s="86"/>
-      <c r="K3" s="86"/>
-      <c r="L3" s="87"/>
-      <c r="M3" s="87"/>
-      <c r="N3" s="88"/>
-    </row>
-    <row r="4" spans="1:14" s="46" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="60" t="s">
+      <c r="B3" s="68"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="L3" s="77"/>
+      <c r="M3" s="77"/>
+    </row>
+    <row r="4" spans="1:13" s="41" customFormat="1" ht="45" customHeight="1">
+      <c r="A4" s="54" t="s">
         <v>54</v>
       </c>
-      <c r="B4" s="61" t="s">
+      <c r="B4" s="55" t="s">
         <v>80</v>
       </c>
-      <c r="C4" s="61" t="s">
+      <c r="C4" s="55" t="s">
         <v>81</v>
       </c>
-      <c r="D4" s="29" t="s">
+      <c r="D4" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="E4" s="61" t="s">
+      <c r="E4" s="55" t="s">
         <v>130</v>
       </c>
-      <c r="F4" s="73" t="s">
+      <c r="F4" s="65" t="s">
         <v>131</v>
       </c>
-      <c r="G4" s="43"/>
-      <c r="H4" s="43"/>
-      <c r="I4" s="43"/>
-      <c r="J4" s="43"/>
-      <c r="K4" s="43"/>
-      <c r="L4" s="43"/>
-      <c r="M4" s="44"/>
-      <c r="N4" s="45"/>
-    </row>
-    <row r="5" spans="1:14" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="22" t="s">
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="39"/>
+      <c r="L4" s="39"/>
+      <c r="M4" s="40"/>
+    </row>
+    <row r="5" spans="1:13" s="16" customFormat="1" ht="15" customHeight="1">
+      <c r="A5" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="B5" s="76">
+      <c r="B5" s="67">
         <v>27</v>
       </c>
-      <c r="C5" s="23">
+      <c r="C5" s="22">
         <v>0</v>
       </c>
-      <c r="D5" s="23" t="s">
+      <c r="D5" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="E5" s="23">
+      <c r="E5" s="22">
         <v>395</v>
       </c>
-      <c r="F5" s="62">
+      <c r="F5" s="56">
         <f>B5/E5</f>
         <v>6.8354430379746839E-2</v>
       </c>
-      <c r="G5" s="34"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="35"/>
-      <c r="J5" s="35"/>
-      <c r="K5" s="36"/>
-      <c r="L5" s="31"/>
-    </row>
-    <row r="6" spans="1:14" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="22" t="s">
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="32"/>
+      <c r="J5" s="32"/>
+      <c r="K5" s="33"/>
+      <c r="L5" s="29"/>
+    </row>
+    <row r="6" spans="1:13" s="16" customFormat="1" ht="15" customHeight="1">
+      <c r="A6" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="B6" s="23">
+      <c r="B6" s="22">
         <v>2</v>
       </c>
-      <c r="C6" s="23">
+      <c r="C6" s="22">
         <v>0</v>
       </c>
-      <c r="D6" s="23" t="s">
+      <c r="D6" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="E6" s="23">
+      <c r="E6" s="22">
         <v>104</v>
       </c>
-      <c r="F6" s="62">
+      <c r="F6" s="56">
         <f>B6/E6</f>
         <v>1.9230769230769232E-2</v>
       </c>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="35"/>
-      <c r="J6" s="35"/>
-      <c r="K6" s="36"/>
-      <c r="L6" s="31"/>
-    </row>
-    <row r="7" spans="1:14" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="22" t="s">
+      <c r="G6" s="31"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="32"/>
+      <c r="J6" s="32"/>
+      <c r="K6" s="33"/>
+      <c r="L6" s="29"/>
+    </row>
+    <row r="7" spans="1:13" s="16" customFormat="1" ht="15" customHeight="1">
+      <c r="A7" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="B7" s="23">
+      <c r="B7" s="22">
         <v>204</v>
       </c>
-      <c r="C7" s="23">
+      <c r="C7" s="22">
         <v>0</v>
       </c>
-      <c r="D7" s="23" t="s">
+      <c r="D7" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="E7" s="71">
+      <c r="E7" s="63">
         <v>1550</v>
       </c>
-      <c r="F7" s="62">
+      <c r="F7" s="56">
         <f>B7/E7</f>
         <v>0.13161290322580646</v>
       </c>
-      <c r="G7" s="35"/>
-      <c r="H7" s="35"/>
-      <c r="I7" s="35"/>
-      <c r="J7" s="37"/>
-      <c r="K7" s="32"/>
-      <c r="L7" s="31"/>
-    </row>
-    <row r="8" spans="1:14" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="22" t="s">
+      <c r="G7" s="32"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="32"/>
+      <c r="J7" s="34"/>
+      <c r="K7" s="30"/>
+      <c r="L7" s="29"/>
+    </row>
+    <row r="8" spans="1:13" s="16" customFormat="1" ht="15" customHeight="1">
+      <c r="A8" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="B8" s="23">
+      <c r="B8" s="22">
         <v>157</v>
       </c>
-      <c r="C8" s="23">
+      <c r="C8" s="22">
         <v>0</v>
       </c>
-      <c r="D8" s="23" t="s">
+      <c r="D8" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="E8" s="23">
+      <c r="E8" s="22">
         <v>884</v>
       </c>
-      <c r="F8" s="62">
+      <c r="F8" s="56">
         <f t="shared" ref="F8:F15" si="0">B8/E8</f>
         <v>0.17760180995475114</v>
       </c>
-      <c r="G8" s="34"/>
-      <c r="H8" s="34"/>
-      <c r="I8" s="35"/>
-      <c r="J8" s="35"/>
-      <c r="K8" s="36"/>
-      <c r="L8" s="31"/>
-    </row>
-    <row r="9" spans="1:14" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="22" t="s">
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="32"/>
+      <c r="J8" s="32"/>
+      <c r="K8" s="33"/>
+      <c r="L8" s="29"/>
+    </row>
+    <row r="9" spans="1:13" s="16" customFormat="1" ht="15" customHeight="1">
+      <c r="A9" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="B9" s="24">
+      <c r="B9" s="23">
         <v>34224</v>
       </c>
-      <c r="C9" s="23">
+      <c r="C9" s="22">
         <v>3</v>
       </c>
-      <c r="D9" s="23">
+      <c r="D9" s="22">
         <v>41</v>
       </c>
-      <c r="E9" s="71">
+      <c r="E9" s="63">
         <v>238745</v>
       </c>
-      <c r="F9" s="62">
+      <c r="F9" s="56">
         <f t="shared" si="0"/>
         <v>0.14334959894448052</v>
       </c>
-      <c r="G9" s="38"/>
-      <c r="H9" s="34"/>
-      <c r="I9" s="35"/>
-      <c r="J9" s="37"/>
-      <c r="K9" s="36"/>
-      <c r="L9" s="31"/>
-    </row>
-    <row r="10" spans="1:14" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="22" t="s">
+      <c r="G9" s="35"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="32"/>
+      <c r="J9" s="34"/>
+      <c r="K9" s="33"/>
+      <c r="L9" s="29"/>
+    </row>
+    <row r="10" spans="1:13" s="16" customFormat="1" ht="15" customHeight="1">
+      <c r="A10" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="B10" s="71">
+      <c r="B10" s="63">
         <v>15680</v>
       </c>
-      <c r="C10" s="23">
+      <c r="C10" s="22">
         <v>15</v>
       </c>
-      <c r="D10" s="23">
+      <c r="D10" s="22">
         <v>14</v>
       </c>
-      <c r="E10" s="71">
+      <c r="E10" s="63">
         <v>231308</v>
       </c>
-      <c r="F10" s="62">
+      <c r="F10" s="56">
         <f>B10/E10</f>
         <v>6.7788403340999878E-2</v>
       </c>
-      <c r="G10" s="38"/>
-      <c r="H10" s="34"/>
-      <c r="I10" s="35"/>
-      <c r="J10" s="37"/>
-      <c r="K10" s="36"/>
-      <c r="L10" s="31"/>
-    </row>
-    <row r="11" spans="1:14" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="22" t="s">
+      <c r="G10" s="35"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="32"/>
+      <c r="J10" s="34"/>
+      <c r="K10" s="33"/>
+      <c r="L10" s="29"/>
+    </row>
+    <row r="11" spans="1:13" s="16" customFormat="1" ht="15" customHeight="1">
+      <c r="A11" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="B11" s="71">
+      <c r="B11" s="63">
         <v>1792</v>
       </c>
-      <c r="C11" s="23">
+      <c r="C11" s="22">
         <v>2</v>
       </c>
-      <c r="D11" s="23">
+      <c r="D11" s="22">
         <v>0</v>
       </c>
-      <c r="E11" s="71">
+      <c r="E11" s="63">
         <v>27142</v>
       </c>
-      <c r="F11" s="62">
+      <c r="F11" s="56">
         <f t="shared" si="0"/>
         <v>6.6023137572765456E-2</v>
       </c>
-      <c r="G11" s="34"/>
-      <c r="H11" s="34"/>
-      <c r="I11" s="35"/>
-      <c r="J11" s="37"/>
-      <c r="K11" s="36"/>
-      <c r="L11" s="31"/>
-    </row>
-    <row r="12" spans="1:14" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="22" t="s">
+      <c r="G11" s="31"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="32"/>
+      <c r="J11" s="34"/>
+      <c r="K11" s="33"/>
+      <c r="L11" s="29"/>
+    </row>
+    <row r="12" spans="1:13" s="16" customFormat="1" ht="15" customHeight="1">
+      <c r="A12" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="B12" s="23">
+      <c r="B12" s="22">
         <v>998</v>
       </c>
-      <c r="C12" s="23">
+      <c r="C12" s="22">
         <v>0</v>
       </c>
-      <c r="D12" s="23" t="s">
+      <c r="D12" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="E12" s="71">
+      <c r="E12" s="63">
         <v>19715</v>
       </c>
-      <c r="F12" s="62">
+      <c r="F12" s="56">
         <f t="shared" si="0"/>
         <v>5.062135429875729E-2</v>
       </c>
-      <c r="G12" s="34"/>
-      <c r="H12" s="34"/>
-      <c r="I12" s="35"/>
-      <c r="J12" s="37"/>
-      <c r="K12" s="36"/>
-      <c r="L12" s="31"/>
-    </row>
-    <row r="13" spans="1:14" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="22" t="s">
+      <c r="G12" s="31"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="32"/>
+      <c r="J12" s="34"/>
+      <c r="K12" s="33"/>
+      <c r="L12" s="29"/>
+    </row>
+    <row r="13" spans="1:13" s="16" customFormat="1" ht="15" customHeight="1">
+      <c r="A13" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="B13" s="71">
+      <c r="B13" s="63">
         <v>7986</v>
       </c>
-      <c r="C13" s="23">
+      <c r="C13" s="22">
         <v>4</v>
       </c>
-      <c r="D13" s="23" t="s">
+      <c r="D13" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="E13" s="71">
+      <c r="E13" s="63">
         <v>115370</v>
       </c>
-      <c r="F13" s="62">
+      <c r="F13" s="56">
         <f t="shared" si="0"/>
         <v>6.9220767963942095E-2</v>
       </c>
-      <c r="G13" s="38"/>
-      <c r="H13" s="34"/>
-      <c r="I13" s="35"/>
-      <c r="J13" s="37"/>
-      <c r="K13" s="36"/>
-      <c r="L13" s="31"/>
-    </row>
-    <row r="14" spans="1:14" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="64" t="s">
+      <c r="G13" s="35"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="32"/>
+      <c r="J13" s="34"/>
+      <c r="K13" s="33"/>
+      <c r="L13" s="29"/>
+    </row>
+    <row r="14" spans="1:13" s="16" customFormat="1" ht="15" customHeight="1">
+      <c r="A14" s="58" t="s">
         <v>114</v>
       </c>
-      <c r="B14" s="71">
+      <c r="B14" s="63">
         <v>4850</v>
       </c>
-      <c r="C14" s="25">
+      <c r="C14" s="24">
         <v>0</v>
       </c>
-      <c r="D14" s="25" t="s">
+      <c r="D14" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="E14" s="71">
+      <c r="E14" s="63">
         <v>60117</v>
       </c>
-      <c r="F14" s="62">
+      <c r="F14" s="56">
         <f t="shared" si="0"/>
         <v>8.0676015103880769E-2</v>
       </c>
-      <c r="G14" s="38"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="35"/>
-      <c r="J14" s="37"/>
-      <c r="K14" s="36"/>
-      <c r="L14" s="31"/>
-    </row>
-    <row r="15" spans="1:14" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="22" t="s">
+      <c r="G14" s="35"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="32"/>
+      <c r="J14" s="34"/>
+      <c r="K14" s="33"/>
+      <c r="L14" s="29"/>
+    </row>
+    <row r="15" spans="1:13" s="16" customFormat="1" ht="15" customHeight="1">
+      <c r="A15" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="B15" s="23">
+      <c r="B15" s="22">
         <v>0</v>
       </c>
-      <c r="C15" s="23">
+      <c r="C15" s="22">
         <v>0</v>
       </c>
-      <c r="D15" s="23" t="s">
+      <c r="D15" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="E15" s="23">
+      <c r="E15" s="22">
         <v>70</v>
       </c>
-      <c r="F15" s="62">
+      <c r="F15" s="56">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G15" s="34"/>
-      <c r="H15" s="34"/>
-      <c r="I15" s="35"/>
-      <c r="J15" s="35"/>
-      <c r="K15" s="36"/>
-      <c r="L15" s="32"/>
-    </row>
-    <row r="16" spans="1:14" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="22" t="s">
+      <c r="G15" s="31"/>
+      <c r="H15" s="31"/>
+      <c r="I15" s="32"/>
+      <c r="J15" s="32"/>
+      <c r="K15" s="33"/>
+      <c r="L15" s="30"/>
+    </row>
+    <row r="16" spans="1:13" s="16" customFormat="1" ht="15" customHeight="1">
+      <c r="A16" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="B16" s="23" t="s">
+      <c r="B16" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="C16" s="23" t="s">
+      <c r="C16" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="D16" s="23" t="s">
+      <c r="D16" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="E16" s="23">
+      <c r="E16" s="22">
         <v>25</v>
       </c>
-      <c r="F16" s="79" t="s">
+      <c r="F16" s="70" t="s">
         <v>85</v>
       </c>
-      <c r="G16" s="34"/>
-      <c r="H16" s="34"/>
-      <c r="I16" s="35"/>
-      <c r="J16" s="35"/>
-      <c r="K16" s="36"/>
-      <c r="L16" s="32"/>
-    </row>
-    <row r="17" spans="1:12" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="22" t="s">
+      <c r="G16" s="31"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="32"/>
+      <c r="J16" s="32"/>
+      <c r="K16" s="33"/>
+      <c r="L16" s="30"/>
+    </row>
+    <row r="17" spans="1:12" s="16" customFormat="1" ht="15" customHeight="1">
+      <c r="A17" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="B17" s="23" t="s">
+      <c r="B17" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="C17" s="23" t="s">
+      <c r="C17" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="D17" s="23" t="s">
+      <c r="D17" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="E17" s="23">
+      <c r="E17" s="22">
         <v>266</v>
       </c>
-      <c r="F17" s="79" t="s">
+      <c r="F17" s="70" t="s">
         <v>85</v>
       </c>
-      <c r="G17" s="34"/>
-      <c r="H17" s="34"/>
-      <c r="I17" s="35"/>
-      <c r="J17" s="35"/>
-      <c r="K17" s="36"/>
-      <c r="L17" s="32"/>
-    </row>
-    <row r="18" spans="1:12" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="55" t="s">
+      <c r="G17" s="31"/>
+      <c r="H17" s="31"/>
+      <c r="I17" s="32"/>
+      <c r="J17" s="32"/>
+      <c r="K17" s="33"/>
+      <c r="L17" s="30"/>
+    </row>
+    <row r="18" spans="1:12" s="16" customFormat="1" ht="15" customHeight="1">
+      <c r="A18" s="49" t="s">
         <v>83</v>
       </c>
-      <c r="B18" s="56">
+      <c r="B18" s="50">
         <v>65920</v>
       </c>
-      <c r="C18" s="57">
+      <c r="C18" s="51">
         <v>24</v>
       </c>
-      <c r="D18" s="57">
+      <c r="D18" s="51">
         <v>55</v>
       </c>
-      <c r="E18" s="72">
+      <c r="E18" s="64">
         <v>695704</v>
       </c>
-      <c r="F18" s="63">
+      <c r="F18" s="57">
         <v>9.5000000000000001E-2</v>
       </c>
-      <c r="G18" s="38"/>
-      <c r="H18" s="34"/>
-      <c r="I18" s="35"/>
-      <c r="J18" s="37"/>
-      <c r="K18" s="36"/>
-      <c r="L18" s="31"/>
-    </row>
-    <row r="19" spans="1:12" s="27" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="157" t="s">
+      <c r="G18" s="35"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="32"/>
+      <c r="J18" s="34"/>
+      <c r="K18" s="33"/>
+      <c r="L18" s="29"/>
+    </row>
+    <row r="19" spans="1:12" ht="17.25" customHeight="1">
+      <c r="A19" s="124" t="s">
         <v>74</v>
       </c>
-      <c r="B19" s="162"/>
-      <c r="C19" s="162"/>
-      <c r="D19" s="162"/>
-      <c r="E19" s="162"/>
-      <c r="F19" s="162"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="33"/>
-      <c r="I19" s="33"/>
-      <c r="J19" s="33"/>
-      <c r="K19" s="33"/>
-      <c r="L19" s="33"/>
-    </row>
-    <row r="20" spans="1:12" s="27" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="169" t="s">
+      <c r="B19" s="128"/>
+      <c r="C19" s="128"/>
+      <c r="D19" s="128"/>
+      <c r="E19" s="128"/>
+      <c r="F19" s="128"/>
+      <c r="G19" s="25"/>
+    </row>
+    <row r="20" spans="1:12" ht="12" customHeight="1">
+      <c r="A20" s="135" t="s">
         <v>82</v>
       </c>
-      <c r="B20" s="162"/>
-      <c r="C20" s="162"/>
-      <c r="D20" s="162"/>
-      <c r="E20" s="162"/>
-      <c r="F20" s="162"/>
-      <c r="G20" s="39"/>
-      <c r="H20" s="33"/>
-      <c r="I20" s="33"/>
-      <c r="J20" s="33"/>
-      <c r="K20" s="33"/>
-    </row>
-    <row r="21" spans="1:12" s="17" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="172" t="s">
+      <c r="B20" s="128"/>
+      <c r="C20" s="128"/>
+      <c r="D20" s="128"/>
+      <c r="E20" s="128"/>
+      <c r="F20" s="128"/>
+      <c r="G20" s="36"/>
+    </row>
+    <row r="21" spans="1:12" s="16" customFormat="1" ht="24" customHeight="1">
+      <c r="A21" s="136" t="s">
         <v>110</v>
       </c>
-      <c r="B21" s="172"/>
-      <c r="C21" s="172"/>
-      <c r="D21" s="172"/>
-      <c r="E21" s="172"/>
-      <c r="F21" s="167"/>
-      <c r="G21" s="40"/>
-      <c r="H21" s="40"/>
-      <c r="I21" s="40"/>
-      <c r="J21" s="40"/>
-      <c r="K21" s="40"/>
-    </row>
-    <row r="22" spans="1:12" s="17" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="159" t="s">
+      <c r="B21" s="136"/>
+      <c r="C21" s="136"/>
+      <c r="D21" s="136"/>
+      <c r="E21" s="136"/>
+      <c r="F21" s="133"/>
+    </row>
+    <row r="22" spans="1:12" s="16" customFormat="1" ht="12" customHeight="1">
+      <c r="A22" s="126" t="s">
         <v>100</v>
       </c>
-      <c r="B22" s="170"/>
-      <c r="C22" s="170"/>
-      <c r="D22" s="170"/>
-      <c r="E22" s="170"/>
-      <c r="F22" s="170"/>
-      <c r="G22" s="40"/>
-      <c r="H22" s="40"/>
-      <c r="I22" s="40"/>
-      <c r="J22" s="40"/>
-      <c r="K22" s="40"/>
-    </row>
-    <row r="23" spans="1:12" s="17" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="171" t="s">
+      <c r="B22" s="133"/>
+      <c r="C22" s="133"/>
+      <c r="D22" s="133"/>
+      <c r="E22" s="133"/>
+      <c r="F22" s="133"/>
+    </row>
+    <row r="23" spans="1:12" s="16" customFormat="1" ht="24" customHeight="1">
+      <c r="A23" s="132" t="s">
         <v>132</v>
       </c>
-      <c r="B23" s="167"/>
-      <c r="C23" s="167"/>
-      <c r="D23" s="167"/>
-      <c r="E23" s="167"/>
-      <c r="F23" s="167"/>
-    </row>
-    <row r="24" spans="1:12" s="20" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="171" t="s">
+      <c r="B23" s="133"/>
+      <c r="C23" s="133"/>
+      <c r="D23" s="133"/>
+      <c r="E23" s="133"/>
+      <c r="F23" s="133"/>
+    </row>
+    <row r="24" spans="1:12" s="19" customFormat="1" ht="12" customHeight="1">
+      <c r="A24" s="132" t="s">
         <v>84</v>
       </c>
-      <c r="B24" s="170"/>
-      <c r="C24" s="170"/>
-      <c r="D24" s="170"/>
-      <c r="E24" s="170"/>
-      <c r="F24" s="170"/>
-    </row>
-    <row r="25" spans="1:12" s="165" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="152" t="s">
+      <c r="B24" s="133"/>
+      <c r="C24" s="133"/>
+      <c r="D24" s="133"/>
+      <c r="E24" s="133"/>
+      <c r="F24" s="133"/>
+    </row>
+    <row r="25" spans="1:12" s="131" customFormat="1" ht="24.5" customHeight="1">
+      <c r="A25" s="119" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="26" spans="1:12" s="17" customFormat="1" ht="74.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="166" t="s">
+    <row r="26" spans="1:12" s="16" customFormat="1" ht="74" customHeight="1">
+      <c r="A26" s="132" t="s">
         <v>113</v>
       </c>
-      <c r="B26" s="166"/>
-      <c r="C26" s="166"/>
-      <c r="D26" s="166"/>
-      <c r="E26" s="166"/>
-      <c r="F26" s="167"/>
-    </row>
-    <row r="27" spans="1:12" s="18" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="108" t="s">
+      <c r="B26" s="132"/>
+      <c r="C26" s="132"/>
+      <c r="D26" s="132"/>
+      <c r="E26" s="132"/>
+      <c r="F26" s="133"/>
+    </row>
+    <row r="27" spans="1:12" s="17" customFormat="1" ht="12" customHeight="1">
+      <c r="A27" s="93" t="s">
         <v>75</v>
       </c>
-      <c r="B27" s="101"/>
-      <c r="C27" s="101"/>
-      <c r="D27" s="101"/>
-      <c r="E27" s="101"/>
-      <c r="F27" s="101"/>
-    </row>
-    <row r="28" spans="1:12" s="21" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="102" t="s">
+      <c r="B27" s="16"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
+    </row>
+    <row r="28" spans="1:12" s="20" customFormat="1" ht="12" customHeight="1">
+      <c r="A28" s="88" t="s">
         <v>118</v>
       </c>
-      <c r="B28" s="107"/>
-      <c r="C28" s="107"/>
-      <c r="D28" s="107"/>
-      <c r="E28" s="107"/>
-      <c r="F28" s="101"/>
-    </row>
-    <row r="29" spans="1:12" s="42" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="103" t="s">
+      <c r="B28" s="92"/>
+      <c r="C28" s="92"/>
+      <c r="D28" s="92"/>
+      <c r="E28" s="92"/>
+      <c r="F28" s="16"/>
+    </row>
+    <row r="29" spans="1:12" s="38" customFormat="1" ht="12" customHeight="1">
+      <c r="A29" s="89" t="s">
         <v>119</v>
       </c>
-      <c r="B29" s="107"/>
-      <c r="C29" s="107"/>
-      <c r="D29" s="101"/>
-      <c r="E29" s="101"/>
-      <c r="F29" s="101"/>
-    </row>
-    <row r="30" spans="1:12" s="21" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="103" t="s">
+      <c r="B29" s="92"/>
+      <c r="C29" s="92"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+    </row>
+    <row r="30" spans="1:12" s="20" customFormat="1" ht="12" customHeight="1">
+      <c r="A30" s="89" t="s">
         <v>133</v>
       </c>
-      <c r="B30" s="107"/>
-      <c r="C30" s="107"/>
-      <c r="D30" s="107"/>
-      <c r="E30" s="101"/>
-      <c r="F30" s="101"/>
-    </row>
-    <row r="31" spans="1:12" s="21" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="102" t="s">
+      <c r="B30" s="92"/>
+      <c r="C30" s="92"/>
+      <c r="D30" s="92"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="16"/>
+    </row>
+    <row r="31" spans="1:12" s="20" customFormat="1" ht="12" customHeight="1">
+      <c r="A31" s="88" t="s">
         <v>120</v>
       </c>
-      <c r="B31" s="107"/>
-      <c r="C31" s="107"/>
-      <c r="D31" s="107"/>
-      <c r="E31" s="101"/>
-      <c r="F31" s="101"/>
-    </row>
-    <row r="32" spans="1:12" s="21" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="102" t="s">
+      <c r="B31" s="92"/>
+      <c r="C31" s="92"/>
+      <c r="D31" s="92"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
+    </row>
+    <row r="32" spans="1:12" s="20" customFormat="1" ht="12" customHeight="1">
+      <c r="A32" s="88" t="s">
         <v>121</v>
       </c>
-      <c r="B32" s="107"/>
-      <c r="C32" s="107"/>
-      <c r="D32" s="107"/>
-      <c r="E32" s="101"/>
-      <c r="F32" s="101"/>
-    </row>
-    <row r="33" spans="1:6" s="51" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="102" t="s">
+      <c r="B32" s="92"/>
+      <c r="C32" s="92"/>
+      <c r="D32" s="92"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="16"/>
+    </row>
+    <row r="33" spans="1:6" s="45" customFormat="1" ht="12" customHeight="1">
+      <c r="A33" s="88" t="s">
         <v>122</v>
       </c>
-      <c r="B33" s="107"/>
-      <c r="C33" s="107"/>
-      <c r="D33" s="107"/>
-      <c r="E33" s="101"/>
-      <c r="F33" s="101"/>
-    </row>
-    <row r="34" spans="1:6" s="21" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="105" t="s">
+      <c r="B33" s="92"/>
+      <c r="C33" s="92"/>
+      <c r="D33" s="92"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="16"/>
+    </row>
+    <row r="34" spans="1:6" s="20" customFormat="1" ht="12" customHeight="1">
+      <c r="A34" s="91" t="s">
         <v>115</v>
       </c>
-      <c r="B34" s="101"/>
-      <c r="C34" s="101"/>
-      <c r="D34" s="101"/>
-      <c r="E34" s="101"/>
-      <c r="F34" s="101"/>
-    </row>
-    <row r="35" spans="1:6" s="21" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="104" t="s">
+      <c r="B34" s="16"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="16"/>
+    </row>
+    <row r="35" spans="1:6" s="20" customFormat="1" ht="12" customHeight="1">
+      <c r="A35" s="90" t="s">
         <v>111</v>
       </c>
-      <c r="B35" s="101"/>
-      <c r="C35" s="101"/>
-      <c r="D35" s="101"/>
-      <c r="E35" s="101"/>
-      <c r="F35" s="101"/>
-    </row>
-    <row r="36" spans="1:6" s="96" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="102" t="s">
+      <c r="B35" s="16"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="16"/>
+    </row>
+    <row r="36" spans="1:6" s="85" customFormat="1" ht="12" customHeight="1">
+      <c r="A36" s="88" t="s">
         <v>123</v>
       </c>
-      <c r="B36" s="107"/>
-      <c r="C36" s="107"/>
-      <c r="D36" s="107"/>
-      <c r="E36" s="109"/>
-      <c r="F36" s="109"/>
-    </row>
-    <row r="37" spans="1:6" s="96" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="102" t="s">
+      <c r="B36" s="92"/>
+      <c r="C36" s="92"/>
+      <c r="D36" s="92"/>
+      <c r="E36" s="36"/>
+      <c r="F36" s="36"/>
+    </row>
+    <row r="37" spans="1:6" s="85" customFormat="1" ht="12" customHeight="1">
+      <c r="A37" s="88" t="s">
         <v>124</v>
       </c>
-      <c r="B37" s="107"/>
-      <c r="C37" s="107"/>
-      <c r="D37" s="107"/>
-      <c r="E37" s="109"/>
-      <c r="F37" s="109"/>
-    </row>
-    <row r="38" spans="1:6" s="96" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="102" t="s">
+      <c r="B37" s="92"/>
+      <c r="C37" s="92"/>
+      <c r="D37" s="92"/>
+      <c r="E37" s="36"/>
+      <c r="F37" s="36"/>
+    </row>
+    <row r="38" spans="1:6" s="85" customFormat="1" ht="12" customHeight="1">
+      <c r="A38" s="88" t="s">
         <v>125</v>
       </c>
-      <c r="B38" s="107"/>
-      <c r="C38" s="107"/>
-      <c r="D38" s="107"/>
-      <c r="E38" s="107"/>
-      <c r="F38" s="109"/>
-    </row>
-    <row r="39" spans="1:6" s="96" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="102" t="s">
+      <c r="B38" s="92"/>
+      <c r="C38" s="92"/>
+      <c r="D38" s="92"/>
+      <c r="E38" s="92"/>
+      <c r="F38" s="36"/>
+    </row>
+    <row r="39" spans="1:6" s="85" customFormat="1" ht="12" customHeight="1">
+      <c r="A39" s="88" t="s">
         <v>126</v>
       </c>
-      <c r="B39" s="107"/>
-      <c r="C39" s="107"/>
-      <c r="D39" s="107"/>
-      <c r="E39" s="109"/>
-      <c r="F39" s="109"/>
-    </row>
-    <row r="40" spans="1:6" s="106" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="103" t="s">
+      <c r="B39" s="92"/>
+      <c r="C39" s="92"/>
+      <c r="D39" s="92"/>
+      <c r="E39" s="36"/>
+      <c r="F39" s="36"/>
+    </row>
+    <row r="40" spans="1:6" s="36" customFormat="1" ht="12" customHeight="1">
+      <c r="A40" s="89" t="s">
         <v>127</v>
       </c>
-      <c r="B40" s="107"/>
-      <c r="C40" s="107"/>
-      <c r="D40" s="107"/>
-      <c r="E40" s="109"/>
-      <c r="F40" s="109"/>
-    </row>
-    <row r="41" spans="1:6" s="96" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="102" t="s">
+      <c r="B40" s="92"/>
+      <c r="C40" s="92"/>
+      <c r="D40" s="92"/>
+    </row>
+    <row r="41" spans="1:6" s="85" customFormat="1" ht="12" customHeight="1">
+      <c r="A41" s="88" t="s">
         <v>128</v>
       </c>
-      <c r="B41" s="107"/>
-      <c r="C41" s="107"/>
-      <c r="D41" s="107"/>
-      <c r="E41" s="109"/>
-      <c r="F41" s="109"/>
-    </row>
-    <row r="42" spans="1:6" s="96" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="102" t="s">
+      <c r="B41" s="92"/>
+      <c r="C41" s="92"/>
+      <c r="D41" s="92"/>
+      <c r="E41" s="36"/>
+      <c r="F41" s="36"/>
+    </row>
+    <row r="42" spans="1:6" s="85" customFormat="1" ht="12" customHeight="1">
+      <c r="A42" s="88" t="s">
         <v>129</v>
       </c>
-      <c r="B42" s="107"/>
-      <c r="C42" s="107"/>
-      <c r="D42" s="107"/>
-      <c r="E42" s="109"/>
-      <c r="F42" s="109"/>
-    </row>
-    <row r="43" spans="1:6" s="96" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="102" t="s">
+      <c r="B42" s="92"/>
+      <c r="C42" s="92"/>
+      <c r="D42" s="92"/>
+      <c r="E42" s="36"/>
+      <c r="F42" s="36"/>
+    </row>
+    <row r="43" spans="1:6" s="85" customFormat="1" ht="12" customHeight="1">
+      <c r="A43" s="88" t="s">
         <v>134</v>
       </c>
-      <c r="B43" s="107"/>
-      <c r="C43" s="107"/>
-      <c r="D43" s="107"/>
-      <c r="E43" s="109"/>
-      <c r="F43" s="109"/>
-    </row>
-    <row r="44" spans="1:6" s="113" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="168" t="s">
+      <c r="B43" s="92"/>
+      <c r="C43" s="92"/>
+      <c r="D43" s="92"/>
+      <c r="E43" s="36"/>
+      <c r="F43" s="36"/>
+    </row>
+    <row r="44" spans="1:6" s="16" customFormat="1" ht="15" customHeight="1">
+      <c r="A44" s="134" t="s">
         <v>103</v>
       </c>
-      <c r="B44" s="164"/>
-      <c r="C44" s="164"/>
-      <c r="D44" s="164"/>
-      <c r="E44" s="164"/>
-      <c r="F44" s="164"/>
+      <c r="B44" s="130"/>
+      <c r="C44" s="130"/>
+      <c r="D44" s="130"/>
+      <c r="E44" s="130"/>
+      <c r="F44" s="130"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -13315,717 +13091,686 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="13.8" zeroHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="14" zeroHeight="1"/>
   <cols>
-    <col min="1" max="1" width="25.59765625" customWidth="1"/>
-    <col min="2" max="3" width="20.59765625" customWidth="1"/>
-    <col min="4" max="4" width="28.59765625" customWidth="1"/>
-    <col min="5" max="6" width="20.59765625" customWidth="1"/>
-    <col min="7" max="10" width="24.59765625" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="25.59765625" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="33.3984375" hidden="1" customWidth="1"/>
-    <col min="13" max="16" width="20.59765625" hidden="1" customWidth="1"/>
-    <col min="17" max="26" width="18.09765625" hidden="1" customWidth="1"/>
-    <col min="27" max="27" width="11.8984375" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="25.6640625" customWidth="1"/>
+    <col min="2" max="3" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="28.6640625" customWidth="1"/>
+    <col min="5" max="6" width="20.6640625" customWidth="1"/>
+    <col min="7" max="10" width="24.6640625" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="25.6640625" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="33.33203125" hidden="1" customWidth="1"/>
+    <col min="13" max="16" width="20.6640625" hidden="1" customWidth="1"/>
+    <col min="17" max="26" width="18.1640625" hidden="1" customWidth="1"/>
+    <col min="27" max="27" width="11.83203125" hidden="1" customWidth="1"/>
     <col min="28" max="16384" width="9" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="78" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="78" t="s">
+    <row r="1" spans="1:13" s="69" customFormat="1" ht="15" hidden="1" customHeight="1">
+      <c r="A1" s="69" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="81" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="51" t="s">
+    <row r="2" spans="1:13" s="72" customFormat="1" ht="24" customHeight="1">
+      <c r="A2" s="45" t="s">
         <v>102</v>
       </c>
-      <c r="B2" s="80"/>
-    </row>
-    <row r="3" spans="1:14" s="15" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="77" t="s">
+      <c r="B2" s="71"/>
+    </row>
+    <row r="3" spans="1:13" s="14" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A3" s="68" t="s">
         <v>203</v>
       </c>
-      <c r="B3" s="100"/>
-      <c r="C3" s="100"/>
-      <c r="D3" s="100"/>
-      <c r="E3" s="100"/>
-      <c r="F3" s="100"/>
-      <c r="G3" s="86"/>
-      <c r="H3" s="86"/>
-      <c r="I3" s="86"/>
-      <c r="J3" s="86"/>
-      <c r="K3" s="86"/>
-      <c r="L3" s="87"/>
-      <c r="M3" s="87"/>
-      <c r="N3" s="88"/>
-    </row>
-    <row r="4" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="41" t="s">
+      <c r="B3" s="68"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="L3" s="77"/>
+      <c r="M3" s="77"/>
+    </row>
+    <row r="4" spans="1:13" ht="45" customHeight="1">
+      <c r="A4" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="C4" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="D4" s="29" t="s">
+      <c r="D4" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="E4" s="28" t="s">
+      <c r="E4" s="26" t="s">
         <v>130</v>
       </c>
-      <c r="F4" s="52" t="s">
+      <c r="F4" s="46" t="s">
         <v>131</v>
       </c>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="30"/>
-      <c r="L4" s="30"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="28"/>
+      <c r="L4" s="28"/>
       <c r="M4" s="1"/>
-      <c r="N4" s="2"/>
-    </row>
-    <row r="5" spans="1:14" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="22" t="s">
+    </row>
+    <row r="5" spans="1:13" s="16" customFormat="1" ht="15" customHeight="1">
+      <c r="A5" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="D5" s="23" t="s">
+      <c r="D5" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="E5" s="23" t="s">
+      <c r="E5" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="F5" s="53">
+      <c r="F5" s="47">
         <v>6.0999999999999999E-2</v>
       </c>
-      <c r="G5" s="34"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="35"/>
-      <c r="J5" s="35"/>
-      <c r="K5" s="36"/>
-      <c r="L5" s="31"/>
-    </row>
-    <row r="6" spans="1:14" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="22" t="s">
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="32"/>
+      <c r="J5" s="32"/>
+      <c r="K5" s="33"/>
+      <c r="L5" s="29"/>
+    </row>
+    <row r="6" spans="1:13" s="16" customFormat="1" ht="15" customHeight="1">
+      <c r="A6" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="D6" s="23" t="s">
+      <c r="D6" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="E6" s="23" t="s">
+      <c r="E6" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="F6" s="53">
+      <c r="F6" s="47">
         <v>5.6000000000000001E-2</v>
       </c>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="35"/>
-      <c r="J6" s="35"/>
-      <c r="K6" s="36"/>
-      <c r="L6" s="31"/>
-    </row>
-    <row r="7" spans="1:14" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="22" t="s">
+      <c r="G6" s="31"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="32"/>
+      <c r="J6" s="32"/>
+      <c r="K6" s="33"/>
+      <c r="L6" s="29"/>
+    </row>
+    <row r="7" spans="1:13" s="16" customFormat="1" ht="15" customHeight="1">
+      <c r="A7" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="B7" s="23">
+      <c r="B7" s="22">
         <v>184</v>
       </c>
-      <c r="C7" s="23">
+      <c r="C7" s="22">
         <v>0</v>
       </c>
-      <c r="D7" s="23" t="s">
+      <c r="D7" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="E7" s="23" t="s">
+      <c r="E7" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="F7" s="53">
+      <c r="F7" s="47">
         <v>0.17199999999999999</v>
       </c>
-      <c r="G7" s="35"/>
-      <c r="H7" s="35"/>
-      <c r="I7" s="35"/>
-      <c r="J7" s="37"/>
-      <c r="K7" s="32"/>
-      <c r="L7" s="31"/>
-    </row>
-    <row r="8" spans="1:14" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="22" t="s">
+      <c r="G7" s="32"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="32"/>
+      <c r="J7" s="34"/>
+      <c r="K7" s="30"/>
+      <c r="L7" s="29"/>
+    </row>
+    <row r="8" spans="1:13" s="16" customFormat="1" ht="15" customHeight="1">
+      <c r="A8" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="C8" s="23" t="s">
+      <c r="C8" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="D8" s="23" t="s">
+      <c r="D8" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="E8" s="23" t="s">
+      <c r="E8" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="F8" s="53">
+      <c r="F8" s="47">
         <v>0.188</v>
       </c>
-      <c r="G8" s="34"/>
-      <c r="H8" s="34"/>
-      <c r="I8" s="35"/>
-      <c r="J8" s="35"/>
-      <c r="K8" s="36"/>
-      <c r="L8" s="31"/>
-    </row>
-    <row r="9" spans="1:14" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="22" t="s">
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="32"/>
+      <c r="J8" s="32"/>
+      <c r="K8" s="33"/>
+      <c r="L8" s="29"/>
+    </row>
+    <row r="9" spans="1:13" s="16" customFormat="1" ht="15" customHeight="1">
+      <c r="A9" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="B9" s="24">
+      <c r="B9" s="23">
         <v>14007</v>
       </c>
-      <c r="C9" s="23">
+      <c r="C9" s="22">
         <v>3</v>
       </c>
-      <c r="D9" s="23">
+      <c r="D9" s="22">
         <v>41</v>
       </c>
-      <c r="E9" s="23" t="s">
+      <c r="E9" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="F9" s="54">
+      <c r="F9" s="48">
         <v>0.24099999999999999</v>
       </c>
-      <c r="G9" s="38"/>
-      <c r="H9" s="34"/>
-      <c r="I9" s="35"/>
-      <c r="J9" s="37"/>
-      <c r="K9" s="36"/>
-      <c r="L9" s="31"/>
-    </row>
-    <row r="10" spans="1:14" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="22" t="s">
+      <c r="G9" s="35"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="32"/>
+      <c r="J9" s="34"/>
+      <c r="K9" s="33"/>
+      <c r="L9" s="29"/>
+    </row>
+    <row r="10" spans="1:13" s="16" customFormat="1" ht="15" customHeight="1">
+      <c r="A10" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="C10" s="23">
+      <c r="C10" s="22">
         <v>9</v>
       </c>
-      <c r="D10" s="23">
+      <c r="D10" s="22">
         <v>14</v>
       </c>
-      <c r="E10" s="23" t="s">
+      <c r="E10" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="F10" s="53">
+      <c r="F10" s="47">
         <v>0.16700000000000001</v>
       </c>
-      <c r="G10" s="38"/>
-      <c r="H10" s="34"/>
-      <c r="I10" s="35"/>
-      <c r="J10" s="37"/>
-      <c r="K10" s="36"/>
-      <c r="L10" s="31"/>
-    </row>
-    <row r="11" spans="1:14" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="22" t="s">
+      <c r="G10" s="35"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="32"/>
+      <c r="J10" s="34"/>
+      <c r="K10" s="33"/>
+      <c r="L10" s="29"/>
+    </row>
+    <row r="11" spans="1:13" s="16" customFormat="1" ht="15" customHeight="1">
+      <c r="A11" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="B11" s="23">
+      <c r="B11" s="22">
         <v>38</v>
       </c>
-      <c r="C11" s="23" t="s">
+      <c r="C11" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="D11" s="23" t="s">
+      <c r="D11" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="E11" s="23">
+      <c r="E11" s="22">
         <v>375</v>
       </c>
-      <c r="F11" s="54">
+      <c r="F11" s="48">
         <v>0.10100000000000001</v>
       </c>
-      <c r="G11" s="34"/>
-      <c r="H11" s="34"/>
-      <c r="I11" s="35"/>
-      <c r="J11" s="37"/>
-      <c r="K11" s="36"/>
-      <c r="L11" s="31"/>
-    </row>
-    <row r="12" spans="1:14" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="22" t="s">
+      <c r="G11" s="31"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="32"/>
+      <c r="J11" s="34"/>
+      <c r="K11" s="33"/>
+      <c r="L11" s="29"/>
+    </row>
+    <row r="12" spans="1:13" s="16" customFormat="1" ht="15" customHeight="1">
+      <c r="A12" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="B12" s="23" t="s">
+      <c r="B12" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="C12" s="23" t="s">
+      <c r="C12" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="D12" s="23" t="s">
+      <c r="D12" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="E12" s="23" t="s">
+      <c r="E12" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="F12" s="53">
+      <c r="F12" s="47">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="G12" s="34"/>
-      <c r="H12" s="34"/>
-      <c r="I12" s="35"/>
-      <c r="J12" s="37"/>
-      <c r="K12" s="36"/>
-      <c r="L12" s="31"/>
-    </row>
-    <row r="13" spans="1:14" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="22" t="s">
+      <c r="G12" s="31"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="32"/>
+      <c r="J12" s="34"/>
+      <c r="K12" s="33"/>
+      <c r="L12" s="29"/>
+    </row>
+    <row r="13" spans="1:13" s="16" customFormat="1" ht="15" customHeight="1">
+      <c r="A13" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="B13" s="23" t="s">
+      <c r="B13" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="C13" s="23">
+      <c r="C13" s="22">
         <v>0</v>
       </c>
-      <c r="D13" s="23" t="s">
+      <c r="D13" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="E13" s="23" t="s">
+      <c r="E13" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="F13" s="53">
+      <c r="F13" s="47">
         <v>8.7999999999999995E-2</v>
       </c>
-      <c r="G13" s="38"/>
-      <c r="H13" s="34"/>
-      <c r="I13" s="35"/>
-      <c r="J13" s="37"/>
-      <c r="K13" s="36"/>
-      <c r="L13" s="31"/>
-    </row>
-    <row r="14" spans="1:14" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="22" t="s">
+      <c r="G13" s="35"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="32"/>
+      <c r="J13" s="34"/>
+      <c r="K13" s="33"/>
+      <c r="L13" s="29"/>
+    </row>
+    <row r="14" spans="1:13" s="16" customFormat="1" ht="15" customHeight="1">
+      <c r="A14" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="B14" s="23" t="s">
+      <c r="B14" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="C14" s="25">
+      <c r="C14" s="24">
         <v>0</v>
       </c>
-      <c r="D14" s="25" t="s">
+      <c r="D14" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="E14" s="23" t="s">
+      <c r="E14" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="F14" s="53">
+      <c r="F14" s="47">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="G14" s="38"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="35"/>
-      <c r="J14" s="37"/>
-      <c r="K14" s="36"/>
-      <c r="L14" s="31"/>
-    </row>
-    <row r="15" spans="1:14" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="22" t="s">
+      <c r="G14" s="35"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="32"/>
+      <c r="J14" s="34"/>
+      <c r="K14" s="33"/>
+      <c r="L14" s="29"/>
+    </row>
+    <row r="15" spans="1:13" s="16" customFormat="1" ht="15" customHeight="1">
+      <c r="A15" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="B15" s="23" t="s">
+      <c r="B15" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="C15" s="23" t="s">
+      <c r="C15" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="D15" s="23" t="s">
+      <c r="D15" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="E15" s="23" t="s">
+      <c r="E15" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="F15" s="53" t="s">
+      <c r="F15" s="47" t="s">
         <v>56</v>
       </c>
-      <c r="G15" s="34"/>
-      <c r="H15" s="34"/>
-      <c r="I15" s="35"/>
-      <c r="J15" s="35"/>
-      <c r="K15" s="36"/>
-      <c r="L15" s="32"/>
-    </row>
-    <row r="16" spans="1:14" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="22" t="s">
+      <c r="G15" s="31"/>
+      <c r="H15" s="31"/>
+      <c r="I15" s="32"/>
+      <c r="J15" s="32"/>
+      <c r="K15" s="33"/>
+      <c r="L15" s="30"/>
+    </row>
+    <row r="16" spans="1:13" s="16" customFormat="1" ht="15" customHeight="1">
+      <c r="A16" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="B16" s="23" t="s">
+      <c r="B16" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="C16" s="23">
+      <c r="C16" s="22">
         <v>0</v>
       </c>
-      <c r="D16" s="23" t="s">
+      <c r="D16" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="E16" s="23" t="s">
+      <c r="E16" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="F16" s="53">
+      <c r="F16" s="47">
         <v>0</v>
       </c>
-      <c r="G16" s="34"/>
-      <c r="H16" s="34"/>
-      <c r="I16" s="35"/>
-      <c r="J16" s="35"/>
-      <c r="K16" s="36"/>
-      <c r="L16" s="32"/>
-    </row>
-    <row r="17" spans="1:12" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="22" t="s">
+      <c r="G16" s="31"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="32"/>
+      <c r="J16" s="32"/>
+      <c r="K16" s="33"/>
+      <c r="L16" s="30"/>
+    </row>
+    <row r="17" spans="1:12" s="16" customFormat="1" ht="15" customHeight="1">
+      <c r="A17" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="B17" s="23" t="s">
+      <c r="B17" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="C17" s="23" t="s">
+      <c r="C17" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="D17" s="23" t="s">
+      <c r="D17" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="E17" s="23" t="s">
+      <c r="E17" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="F17" s="53">
+      <c r="F17" s="47">
         <v>0</v>
       </c>
-      <c r="G17" s="34"/>
-      <c r="H17" s="34"/>
-      <c r="I17" s="35"/>
-      <c r="J17" s="35"/>
-      <c r="K17" s="36"/>
-      <c r="L17" s="32"/>
-    </row>
-    <row r="18" spans="1:12" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="55" t="s">
+      <c r="G17" s="31"/>
+      <c r="H17" s="31"/>
+      <c r="I17" s="32"/>
+      <c r="J17" s="32"/>
+      <c r="K17" s="33"/>
+      <c r="L17" s="30"/>
+    </row>
+    <row r="18" spans="1:12" s="16" customFormat="1" ht="15" customHeight="1">
+      <c r="A18" s="49" t="s">
         <v>83</v>
       </c>
-      <c r="B18" s="56">
+      <c r="B18" s="50">
         <v>21842</v>
       </c>
-      <c r="C18" s="57">
+      <c r="C18" s="51">
         <v>12</v>
       </c>
-      <c r="D18" s="57" t="s">
+      <c r="D18" s="51" t="s">
         <v>85</v>
       </c>
-      <c r="E18" s="58" t="s">
+      <c r="E18" s="52" t="s">
         <v>73</v>
       </c>
-      <c r="F18" s="59">
+      <c r="F18" s="53">
         <v>0.19400000000000001</v>
       </c>
-      <c r="G18" s="38"/>
-      <c r="H18" s="34"/>
-      <c r="I18" s="35"/>
-      <c r="J18" s="37"/>
-      <c r="K18" s="36"/>
-      <c r="L18" s="31"/>
-    </row>
-    <row r="19" spans="1:12" s="27" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="157" t="s">
+      <c r="G18" s="35"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="32"/>
+      <c r="J18" s="34"/>
+      <c r="K18" s="33"/>
+      <c r="L18" s="29"/>
+    </row>
+    <row r="19" spans="1:12" ht="17.25" customHeight="1">
+      <c r="A19" s="124" t="s">
         <v>74</v>
       </c>
-      <c r="B19" s="162"/>
-      <c r="C19" s="162"/>
-      <c r="D19" s="162"/>
-      <c r="E19" s="162"/>
-      <c r="F19" s="162"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="33"/>
-      <c r="I19" s="33"/>
-      <c r="J19" s="33"/>
-      <c r="K19" s="33"/>
-      <c r="L19" s="33"/>
-    </row>
-    <row r="20" spans="1:12" s="17" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="110" t="s">
+      <c r="B19" s="128"/>
+      <c r="C19" s="128"/>
+      <c r="D19" s="128"/>
+      <c r="E19" s="128"/>
+      <c r="F19" s="128"/>
+      <c r="G19" s="25"/>
+    </row>
+    <row r="20" spans="1:12" s="16" customFormat="1" ht="12" customHeight="1">
+      <c r="A20" s="94" t="s">
         <v>82</v>
       </c>
-      <c r="B20" s="135"/>
-      <c r="C20" s="135"/>
-      <c r="D20" s="135"/>
-      <c r="E20" s="135"/>
-      <c r="F20" s="135"/>
-      <c r="G20" s="39"/>
-      <c r="H20" s="40"/>
-      <c r="I20" s="40"/>
-      <c r="J20" s="40"/>
-      <c r="K20" s="40"/>
-    </row>
-    <row r="21" spans="1:12" s="17" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="159" t="s">
+      <c r="G20" s="36"/>
+    </row>
+    <row r="21" spans="1:12" s="16" customFormat="1" ht="24" customHeight="1">
+      <c r="A21" s="126" t="s">
         <v>99</v>
       </c>
-      <c r="B21" s="159"/>
-      <c r="C21" s="159"/>
-      <c r="D21" s="159"/>
-      <c r="E21" s="159"/>
-      <c r="F21" s="170"/>
-      <c r="G21" s="40"/>
-      <c r="H21" s="40"/>
-      <c r="I21" s="40"/>
-      <c r="J21" s="40"/>
-      <c r="K21" s="40"/>
-    </row>
-    <row r="22" spans="1:12" s="17" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="111" t="s">
+      <c r="B21" s="126"/>
+      <c r="C21" s="126"/>
+      <c r="D21" s="126"/>
+      <c r="E21" s="126"/>
+      <c r="F21" s="133"/>
+    </row>
+    <row r="22" spans="1:12" s="16" customFormat="1" ht="12" customHeight="1">
+      <c r="A22" s="95" t="s">
         <v>100</v>
       </c>
-      <c r="B22" s="135"/>
-      <c r="C22" s="135"/>
-      <c r="D22" s="135"/>
-      <c r="E22" s="135"/>
-      <c r="F22" s="135"/>
-    </row>
-    <row r="23" spans="1:12" s="17" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="171" t="s">
+    </row>
+    <row r="23" spans="1:12" s="16" customFormat="1" ht="24" customHeight="1">
+      <c r="A23" s="132" t="s">
         <v>132</v>
       </c>
-      <c r="B23" s="167"/>
-      <c r="C23" s="167"/>
-      <c r="D23" s="167"/>
-      <c r="E23" s="167"/>
-      <c r="F23" s="167"/>
-    </row>
-    <row r="24" spans="1:12" s="20" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="42" t="s">
+      <c r="B23" s="133"/>
+      <c r="C23" s="133"/>
+      <c r="D23" s="133"/>
+      <c r="E23" s="133"/>
+      <c r="F23" s="133"/>
+    </row>
+    <row r="24" spans="1:12" s="19" customFormat="1" ht="12" customHeight="1">
+      <c r="A24" s="38" t="s">
         <v>84</v>
       </c>
-      <c r="B24" s="135"/>
-      <c r="C24" s="135"/>
-      <c r="D24" s="135"/>
-      <c r="E24" s="135"/>
-      <c r="F24" s="135"/>
-    </row>
-    <row r="25" spans="1:12" s="141" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="161" t="s">
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+    </row>
+    <row r="25" spans="1:12" s="15" customFormat="1" ht="24" customHeight="1">
+      <c r="A25" s="120" t="s">
         <v>177</v>
       </c>
-      <c r="B25" s="161"/>
-      <c r="C25" s="161"/>
-      <c r="D25" s="161"/>
-      <c r="E25" s="161"/>
-      <c r="F25" s="161"/>
-    </row>
-    <row r="26" spans="1:12" s="17" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="166" t="s">
+      <c r="B25" s="120"/>
+      <c r="C25" s="120"/>
+      <c r="D25" s="120"/>
+      <c r="E25" s="120"/>
+      <c r="F25" s="120"/>
+    </row>
+    <row r="26" spans="1:12" s="16" customFormat="1" ht="60" customHeight="1">
+      <c r="A26" s="132" t="s">
         <v>112</v>
       </c>
-      <c r="B26" s="166"/>
-      <c r="C26" s="166"/>
-      <c r="D26" s="166"/>
-      <c r="E26" s="166"/>
-      <c r="F26" s="167"/>
-    </row>
-    <row r="27" spans="1:12" s="18" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="173" t="s">
+      <c r="B26" s="132"/>
+      <c r="C26" s="132"/>
+      <c r="D26" s="132"/>
+      <c r="E26" s="132"/>
+      <c r="F26" s="133"/>
+    </row>
+    <row r="27" spans="1:12" s="17" customFormat="1" ht="12" customHeight="1">
+      <c r="A27" s="137" t="s">
         <v>75</v>
       </c>
-      <c r="B27" s="164"/>
-      <c r="C27" s="164"/>
-      <c r="D27" s="164"/>
-      <c r="E27" s="164"/>
-      <c r="F27" s="164"/>
-    </row>
-    <row r="28" spans="1:12" s="96" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="112" t="s">
+      <c r="B27" s="130"/>
+      <c r="C27" s="130"/>
+      <c r="D27" s="130"/>
+      <c r="E27" s="130"/>
+      <c r="F27" s="130"/>
+    </row>
+    <row r="28" spans="1:12" s="85" customFormat="1" ht="12" customHeight="1">
+      <c r="A28" s="96" t="s">
         <v>135</v>
       </c>
-      <c r="B28" s="107"/>
-      <c r="C28" s="107"/>
-      <c r="D28" s="107"/>
-      <c r="E28" s="109"/>
-      <c r="F28" s="109"/>
-    </row>
-    <row r="29" spans="1:12" s="96" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="112" t="s">
+      <c r="B28" s="92"/>
+      <c r="C28" s="92"/>
+      <c r="D28" s="92"/>
+      <c r="E28" s="36"/>
+      <c r="F28" s="36"/>
+    </row>
+    <row r="29" spans="1:12" s="85" customFormat="1" ht="12" customHeight="1">
+      <c r="A29" s="96" t="s">
         <v>136</v>
       </c>
-      <c r="B29" s="107"/>
-      <c r="C29" s="107"/>
-      <c r="D29" s="109"/>
-      <c r="E29" s="109"/>
-      <c r="F29" s="109"/>
-    </row>
-    <row r="30" spans="1:12" s="96" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="112" t="s">
+      <c r="B29" s="92"/>
+      <c r="C29" s="92"/>
+      <c r="D29" s="36"/>
+      <c r="E29" s="36"/>
+      <c r="F29" s="36"/>
+    </row>
+    <row r="30" spans="1:12" s="85" customFormat="1" ht="12" customHeight="1">
+      <c r="A30" s="96" t="s">
         <v>137</v>
       </c>
-      <c r="B30" s="107"/>
-      <c r="C30" s="107"/>
-      <c r="D30" s="107"/>
-      <c r="E30" s="107"/>
-      <c r="F30" s="109"/>
-    </row>
-    <row r="31" spans="1:12" s="96" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="112" t="s">
+      <c r="B30" s="92"/>
+      <c r="C30" s="92"/>
+      <c r="D30" s="92"/>
+      <c r="E30" s="92"/>
+      <c r="F30" s="36"/>
+    </row>
+    <row r="31" spans="1:12" s="85" customFormat="1" ht="12" customHeight="1">
+      <c r="A31" s="96" t="s">
         <v>138</v>
       </c>
-      <c r="B31" s="107"/>
-      <c r="C31" s="107"/>
-      <c r="D31" s="107"/>
-      <c r="E31" s="109"/>
-      <c r="F31" s="109"/>
-    </row>
-    <row r="32" spans="1:12" s="96" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="112" t="s">
+      <c r="B31" s="92"/>
+      <c r="C31" s="92"/>
+      <c r="D31" s="92"/>
+      <c r="E31" s="36"/>
+      <c r="F31" s="36"/>
+    </row>
+    <row r="32" spans="1:12" s="85" customFormat="1" ht="12" customHeight="1">
+      <c r="A32" s="96" t="s">
         <v>139</v>
       </c>
-      <c r="B32" s="107"/>
-      <c r="C32" s="107"/>
-      <c r="D32" s="107"/>
-      <c r="E32" s="109"/>
-      <c r="F32" s="109"/>
-    </row>
-    <row r="33" spans="1:6" s="96" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="112" t="s">
+      <c r="B32" s="92"/>
+      <c r="C32" s="92"/>
+      <c r="D32" s="92"/>
+      <c r="E32" s="36"/>
+      <c r="F32" s="36"/>
+    </row>
+    <row r="33" spans="1:6" s="85" customFormat="1" ht="12" customHeight="1">
+      <c r="A33" s="96" t="s">
         <v>140</v>
       </c>
-      <c r="B33" s="107"/>
-      <c r="C33" s="107"/>
-      <c r="D33" s="107"/>
-      <c r="E33" s="107"/>
-      <c r="F33" s="107"/>
-    </row>
-    <row r="34" spans="1:6" s="96" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="112" t="s">
+      <c r="B33" s="92"/>
+      <c r="C33" s="92"/>
+      <c r="D33" s="92"/>
+      <c r="E33" s="92"/>
+      <c r="F33" s="92"/>
+    </row>
+    <row r="34" spans="1:6" s="85" customFormat="1" ht="12" customHeight="1">
+      <c r="A34" s="96" t="s">
         <v>141</v>
       </c>
-      <c r="B34" s="107"/>
-      <c r="C34" s="107"/>
-      <c r="D34" s="107"/>
-      <c r="E34" s="107"/>
-      <c r="F34" s="109"/>
-    </row>
-    <row r="35" spans="1:6" s="96" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="112" t="s">
+      <c r="B34" s="92"/>
+      <c r="C34" s="92"/>
+      <c r="D34" s="92"/>
+      <c r="E34" s="92"/>
+      <c r="F34" s="36"/>
+    </row>
+    <row r="35" spans="1:6" s="85" customFormat="1" ht="12" customHeight="1">
+      <c r="A35" s="96" t="s">
         <v>142</v>
       </c>
-      <c r="B35" s="107"/>
-      <c r="C35" s="107"/>
-      <c r="D35" s="109"/>
-      <c r="E35" s="109"/>
-      <c r="F35" s="109"/>
-    </row>
-    <row r="36" spans="1:6" s="96" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="112" t="s">
+      <c r="B35" s="92"/>
+      <c r="C35" s="92"/>
+      <c r="D35" s="36"/>
+      <c r="E35" s="36"/>
+      <c r="F35" s="36"/>
+    </row>
+    <row r="36" spans="1:6" s="85" customFormat="1" ht="12" customHeight="1">
+      <c r="A36" s="96" t="s">
         <v>143</v>
       </c>
-      <c r="B36" s="107"/>
-      <c r="C36" s="107"/>
-      <c r="D36" s="107"/>
-      <c r="E36" s="109"/>
-      <c r="F36" s="109"/>
-    </row>
-    <row r="37" spans="1:6" s="96" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="112" t="s">
+      <c r="B36" s="92"/>
+      <c r="C36" s="92"/>
+      <c r="D36" s="92"/>
+      <c r="E36" s="36"/>
+      <c r="F36" s="36"/>
+    </row>
+    <row r="37" spans="1:6" s="85" customFormat="1" ht="12" customHeight="1">
+      <c r="A37" s="96" t="s">
         <v>144</v>
       </c>
-      <c r="B37" s="107"/>
-      <c r="C37" s="107"/>
-      <c r="D37" s="109"/>
-      <c r="E37" s="109"/>
-      <c r="F37" s="109"/>
-    </row>
-    <row r="38" spans="1:6" s="96" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="112" t="s">
+      <c r="B37" s="92"/>
+      <c r="C37" s="92"/>
+      <c r="D37" s="36"/>
+      <c r="E37" s="36"/>
+      <c r="F37" s="36"/>
+    </row>
+    <row r="38" spans="1:6" s="85" customFormat="1" ht="12" customHeight="1">
+      <c r="A38" s="96" t="s">
         <v>145</v>
       </c>
-      <c r="B38" s="107"/>
-      <c r="C38" s="107"/>
-      <c r="D38" s="107"/>
-      <c r="E38" s="109"/>
-      <c r="F38" s="109"/>
-    </row>
-    <row r="39" spans="1:6" s="96" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="112" t="s">
+      <c r="B38" s="92"/>
+      <c r="C38" s="92"/>
+      <c r="D38" s="92"/>
+      <c r="E38" s="36"/>
+      <c r="F38" s="36"/>
+    </row>
+    <row r="39" spans="1:6" s="85" customFormat="1" ht="12" customHeight="1">
+      <c r="A39" s="96" t="s">
         <v>146</v>
       </c>
-      <c r="B39" s="107"/>
-      <c r="C39" s="107"/>
-      <c r="D39" s="109"/>
-      <c r="E39" s="109"/>
-      <c r="F39" s="109"/>
-    </row>
-    <row r="40" spans="1:6" s="96" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="112" t="s">
+      <c r="B39" s="92"/>
+      <c r="C39" s="92"/>
+      <c r="D39" s="36"/>
+      <c r="E39" s="36"/>
+      <c r="F39" s="36"/>
+    </row>
+    <row r="40" spans="1:6" s="85" customFormat="1" ht="12" customHeight="1">
+      <c r="A40" s="96" t="s">
         <v>147</v>
       </c>
-      <c r="B40" s="107"/>
-      <c r="C40" s="107"/>
-      <c r="D40" s="107"/>
-      <c r="E40" s="109"/>
-      <c r="F40" s="109"/>
-    </row>
-    <row r="41" spans="1:6" s="96" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="112" t="s">
+      <c r="B40" s="92"/>
+      <c r="C40" s="92"/>
+      <c r="D40" s="92"/>
+      <c r="E40" s="36"/>
+      <c r="F40" s="36"/>
+    </row>
+    <row r="41" spans="1:6" s="85" customFormat="1" ht="12" customHeight="1">
+      <c r="A41" s="96" t="s">
         <v>148</v>
       </c>
-      <c r="B41" s="107"/>
-      <c r="C41" s="107"/>
-      <c r="D41" s="109"/>
-      <c r="E41" s="109"/>
-      <c r="F41" s="109"/>
-    </row>
-    <row r="42" spans="1:6" s="96" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="112" t="s">
+      <c r="B41" s="92"/>
+      <c r="C41" s="92"/>
+      <c r="D41" s="36"/>
+      <c r="E41" s="36"/>
+      <c r="F41" s="36"/>
+    </row>
+    <row r="42" spans="1:6" s="85" customFormat="1" ht="12" customHeight="1">
+      <c r="A42" s="96" t="s">
         <v>149</v>
       </c>
-      <c r="B42" s="107"/>
-      <c r="C42" s="107"/>
-      <c r="D42" s="107"/>
-      <c r="E42" s="109"/>
-      <c r="F42" s="109"/>
-    </row>
-    <row r="43" spans="1:6" s="96" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="112" t="s">
+      <c r="B42" s="92"/>
+      <c r="C42" s="92"/>
+      <c r="D42" s="92"/>
+      <c r="E42" s="36"/>
+      <c r="F42" s="36"/>
+    </row>
+    <row r="43" spans="1:6" s="85" customFormat="1" ht="12" customHeight="1">
+      <c r="A43" s="96" t="s">
         <v>150</v>
       </c>
-      <c r="B43" s="107"/>
-      <c r="C43" s="107"/>
-      <c r="D43" s="109"/>
-      <c r="E43" s="109"/>
-      <c r="F43" s="109"/>
-    </row>
-    <row r="44" spans="1:6" s="113" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="168" t="s">
+      <c r="B43" s="92"/>
+      <c r="C43" s="92"/>
+      <c r="D43" s="36"/>
+      <c r="E43" s="36"/>
+      <c r="F43" s="36"/>
+    </row>
+    <row r="44" spans="1:6" s="16" customFormat="1" ht="15" customHeight="1">
+      <c r="A44" s="134" t="s">
         <v>103</v>
       </c>
-      <c r="B44" s="164"/>
-      <c r="C44" s="164"/>
-      <c r="D44" s="164"/>
-      <c r="E44" s="164"/>
-      <c r="F44" s="164"/>
+      <c r="B44" s="130"/>
+      <c r="C44" s="130"/>
+      <c r="D44" s="130"/>
+      <c r="E44" s="130"/>
+      <c r="F44" s="130"/>
     </row>
   </sheetData>
   <mergeCells count="7">
